--- a/database.xlsx
+++ b/database.xlsx
@@ -14,18 +14,20 @@
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$24</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">temp!$A$1:$CF$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">temp!$A$1:$CF$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5815" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="223">
   <si>
     <t>车型</t>
   </si>
@@ -1693,7 +1695,7 @@
   </si>
   <si>
     <r>
-      <t>博瑞 </t>
+      <t>荣威</t>
     </r>
     <r>
       <rPr>
@@ -1702,7 +1704,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>2015</t>
+      <t>i6 2017</t>
     </r>
     <r>
       <rPr>
@@ -1720,7 +1722,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1.8T </t>
+      <t>20T </t>
     </r>
     <r>
       <rPr>
@@ -1729,15 +1731,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>尊贵型</t>
-    </r>
-  </si>
-  <si>
-    <t>吉利汽车</t>
-  </si>
-  <si>
-    <r>
-      <t>1.8T 163</t>
+      <t>自动互联网智尊版</t>
+    </r>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <r>
+      <t>1.5T 169</t>
     </r>
     <r>
       <rPr>
@@ -1759,20 +1761,23 @@
     </r>
   </si>
   <si>
-    <t>4956*1861*1513</t>
-  </si>
-  <si>
-    <r>
-      <t>卤素</t>
+    <t>4671*1835*1460</t>
+  </si>
+  <si>
+    <t>整体放倒</t>
+  </si>
+  <si>
+    <r>
+      <t>10.4</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>+LED</t>
+      <t>英寸</t>
     </r>
   </si>
   <si>
@@ -1813,15 +1818,103 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>自动互联网智尊版</t>
-    </r>
-  </si>
-  <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <r>
-      <t>1.5T 169</t>
+      <t>自动互联网智臻版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>威朗 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>款 三厢 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>20T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>双离合精英型</t>
+    </r>
+  </si>
+  <si>
+    <t>上汽通用别克</t>
+  </si>
+  <si>
+    <t>4718*1802*1471</t>
+  </si>
+  <si>
+    <r>
+      <t>迈锐宝 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>款 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1.5T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>自动豪华版</t>
+    </r>
+  </si>
+  <si>
+    <t>上汽通用雪佛兰</t>
+  </si>
+  <si>
+    <r>
+      <t>1.5T 170</t>
     </r>
     <r>
       <rPr>
@@ -1843,14 +1936,142 @@
     </r>
   </si>
   <si>
-    <t>4671*1835*1460</t>
-  </si>
-  <si>
-    <t>整体放倒</t>
-  </si>
-  <si>
-    <r>
-      <t>10.4</t>
+    <t>4855*1854*1476</t>
+  </si>
+  <si>
+    <r>
+      <t>宝来 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>款 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1.6L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>自动豪华型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>大众</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.6L 110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>马力 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>L4</t>
+    </r>
+  </si>
+  <si>
+    <t>4562*1793*1468</t>
+  </si>
+  <si>
+    <r>
+      <t>前○ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>后●</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>选装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1861,11 +2082,6 @@
       </rPr>
       <t>英寸</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>荣威</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1873,7 +2089,56 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>i6 2017</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>USB+AUX+SD</t>
+  </si>
+  <si>
+    <r>
+      <t>卤素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>选装氙气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>速腾 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2017</t>
     </r>
     <r>
       <rPr>
@@ -1891,7 +2156,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>20T </t>
+      <t>1.6L </t>
     </r>
     <r>
       <rPr>
@@ -1900,12 +2165,73 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>自动互联网智臻版</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>威朗 </t>
+      <t>自动舒适型</t>
+    </r>
+  </si>
+  <si>
+    <t>4655*1780*1453</t>
+  </si>
+  <si>
+    <r>
+      <t>前○ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>后○</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主○ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>副</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>手动●</t>
+  </si>
+  <si>
+    <r>
+      <t>卡罗拉 </t>
     </r>
     <r>
       <rPr>
@@ -1923,7 +2249,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>款 三厢 </t>
+      <t>款 改款 </t>
     </r>
     <r>
       <rPr>
@@ -1932,7 +2258,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>20T </t>
+      <t>1.8L CVT GLX-i</t>
+    </r>
+  </si>
+  <si>
+    <t>一汽丰田</t>
+  </si>
+  <si>
+    <r>
+      <t>1.8L 140</t>
     </r>
     <r>
       <rPr>
@@ -1941,18 +2275,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>双离合精英型</t>
-    </r>
-  </si>
-  <si>
-    <t>上汽通用别克</t>
-  </si>
-  <si>
-    <t>4718*1802*1471</t>
-  </si>
-  <si>
-    <r>
-      <t>迈锐宝 </t>
+      <t>马力 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>L4</t>
+    </r>
+  </si>
+  <si>
+    <t>4620*1775*1480</t>
+  </si>
+  <si>
+    <r>
+      <t>卡罗拉 </t>
     </r>
     <r>
       <rPr>
@@ -1970,7 +2310,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>款 </t>
+      <t>款 改款双擎 </t>
     </r>
     <r>
       <rPr>
@@ -1979,7 +2319,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1.5T </t>
+      <t>1.8L CVT</t>
     </r>
     <r>
       <rPr>
@@ -1988,15 +2328,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>自动豪华版</t>
-    </r>
-  </si>
-  <si>
-    <t>上汽通用雪佛兰</t>
-  </si>
-  <si>
-    <r>
-      <t>1.5T 170</t>
+      <t>豪华版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.8L 99</t>
     </r>
     <r>
       <rPr>
@@ -2018,11 +2355,133 @@
     </r>
   </si>
   <si>
-    <t>4855*1854*1476</t>
-  </si>
-  <si>
-    <r>
-      <t>宝来 </t>
+    <r>
+      <t>DS 5LS 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>款 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1.6T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>风尚版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>THP160</t>
+    </r>
+  </si>
+  <si>
+    <t>长安标致雪铁龙</t>
+  </si>
+  <si>
+    <t>4702*1840*1510</t>
+  </si>
+  <si>
+    <r>
+      <t>织物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>选装皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>织物混</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>前● </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>后○</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单碟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DVD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>福克斯 </t>
     </r>
     <r>
       <rPr>
@@ -2040,7 +2499,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>款 </t>
+      <t>款 三厢 </t>
     </r>
     <r>
       <rPr>
@@ -2049,7 +2508,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1.6L </t>
+      <t>EcoBoost 180 </t>
     </r>
     <r>
       <rPr>
@@ -2058,35 +2517,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>自动豪华型</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>一汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>大众</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.6L 110</t>
+      <t>自动旗舰型</t>
+    </r>
+  </si>
+  <si>
+    <t>长安福特</t>
+  </si>
+  <si>
+    <r>
+      <t>1.5T 181</t>
     </r>
     <r>
       <rPr>
@@ -2108,11 +2547,11 @@
     </r>
   </si>
   <si>
-    <t>4562*1793*1468</t>
-  </si>
-  <si>
-    <r>
-      <t>前○ </t>
+    <t>4534*1823*1483</t>
+  </si>
+  <si>
+    <r>
+      <t>LANNIA 蓝鸟 </t>
     </r>
     <r>
       <rPr>
@@ -2121,106 +2560,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>后●</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>选装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>USB+AUX+SD</t>
-  </si>
-  <si>
-    <r>
-      <t>卤素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>选装氙气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>速腾 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2017</t>
+      <t>2016</t>
     </r>
     <r>
       <rPr>
@@ -2238,428 +2578,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1.6L </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>自动舒适型</t>
-    </r>
-  </si>
-  <si>
-    <t>4655*1780*1453</t>
-  </si>
-  <si>
-    <r>
-      <t>前○ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>后○</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>主○ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>副</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <t>手动●</t>
-  </si>
-  <si>
-    <r>
-      <t>卡罗拉 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>款 改款 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1.8L CVT GLX-i</t>
-    </r>
-  </si>
-  <si>
-    <t>一汽丰田</t>
-  </si>
-  <si>
-    <r>
-      <t>1.8L 140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>马力 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>L4</t>
-    </r>
-  </si>
-  <si>
-    <t>4620*1775*1480</t>
-  </si>
-  <si>
-    <r>
-      <t>卡罗拉 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>款 改款双擎 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1.8L CVT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>豪华版</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.8L 99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>马力 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>L4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DS 5LS 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>款 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1.6T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>风尚版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>THP160</t>
-    </r>
-  </si>
-  <si>
-    <t>长安标致雪铁龙</t>
-  </si>
-  <si>
-    <t>4702*1840*1510</t>
-  </si>
-  <si>
-    <r>
-      <t>织物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>选装皮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>织物混</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>前● </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>后○</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>单碟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>DVD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>福克斯 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>款 三厢 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>EcoBoost 180 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>自动旗舰型</t>
-    </r>
-  </si>
-  <si>
-    <t>长安福特</t>
-  </si>
-  <si>
-    <r>
-      <t>1.5T 181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>马力 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>L4</t>
-    </r>
-  </si>
-  <si>
-    <t>4534*1823*1483</t>
-  </si>
-  <si>
-    <r>
-      <t>LANNIA 蓝鸟 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>款 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>1.6L CVT</t>
     </r>
     <r>
@@ -2671,6 +2589,9 @@
       </rPr>
       <t>高能版</t>
     </r>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -2709,12 +2630,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2758,7 +2685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2771,11 +2698,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2804,10 +2735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF24"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6179,16 +6110,16 @@
         <v>179</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2015.04</v>
+        <v>2017.02</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>181</v>
@@ -6200,16 +6131,16 @@
         <v>210</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>8.2</v>
+        <v>5.9</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>93</v>
@@ -6260,7 +6191,7 @@
         <v>98</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE14" s="0" t="s">
         <v>97</v>
@@ -6286,8 +6217,8 @@
       <c r="AL14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM14" s="0" t="s">
-        <v>97</v>
+      <c r="AM14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AN14" s="0" t="s">
         <v>97</v>
@@ -6323,22 +6254,22 @@
         <v>97</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BC14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD14" s="2" t="s">
-        <v>98</v>
+      <c r="BC14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD14" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="BE14" s="0" t="s">
         <v>96</v>
@@ -6349,29 +6280,29 @@
       <c r="BG14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BH14" s="2" t="s">
-        <v>98</v>
+      <c r="BH14" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BI14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BL14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="BN14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO14" s="0" t="s">
-        <v>182</v>
+      <c r="BO14" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BP14" s="0" t="s">
         <v>97</v>
@@ -6382,11 +6313,11 @@
       <c r="BR14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BS14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT14" s="0" t="s">
-        <v>97</v>
+      <c r="BS14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BU14" s="0" t="s">
         <v>97</v>
@@ -6394,14 +6325,14 @@
       <c r="BV14" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW14" s="2" t="s">
-        <v>98</v>
+      <c r="BW14" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="BX14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY14" s="0" t="s">
-        <v>97</v>
+      <c r="BY14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ14" s="0" t="s">
         <v>97</v>
@@ -6427,10 +6358,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>86</v>
@@ -6439,13 +6370,13 @@
         <v>2017.02</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>90</v>
@@ -6504,11 +6435,11 @@
       <c r="Z15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>98</v>
+      <c r="AA15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>98</v>
@@ -6525,8 +6456,8 @@
       <c r="AG15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>98</v>
+      <c r="AH15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AI15" s="2" t="s">
         <v>98</v>
@@ -6592,7 +6523,7 @@
         <v>98</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BE15" s="0" t="s">
         <v>96</v>
@@ -6610,7 +6541,7 @@
         <v>97</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="BK15" s="2" t="s">
         <v>118</v>
@@ -6630,8 +6561,8 @@
       <c r="BP15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BQ15" s="2" t="s">
-        <v>98</v>
+      <c r="BQ15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BR15" s="0" t="s">
         <v>97</v>
@@ -6681,34 +6612,34 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2017.02</v>
+        <v>2016.09</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>1.5</v>
@@ -6758,11 +6689,11 @@
       <c r="Z16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AA16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB16" s="0" t="s">
-        <v>97</v>
+      <c r="AA16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>98</v>
@@ -6779,14 +6710,14 @@
       <c r="AG16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH16" s="0" t="s">
-        <v>97</v>
+      <c r="AH16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>98</v>
+      <c r="AJ16" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK16" s="0" t="s">
         <v>97</v>
@@ -6821,23 +6752,23 @@
       <c r="AU16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX16" s="0" t="s">
-        <v>97</v>
+      <c r="AV16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AZ16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="BB16" s="2" t="s">
         <v>98</v>
@@ -6846,7 +6777,7 @@
         <v>98</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="BE16" s="0" t="s">
         <v>96</v>
@@ -6854,20 +6785,20 @@
       <c r="BF16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH16" s="0" t="s">
-        <v>97</v>
+      <c r="BG16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BI16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BL16" s="2" t="s">
         <v>98</v>
@@ -6875,23 +6806,23 @@
       <c r="BM16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>106</v>
+      <c r="BN16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO16" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BP16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BQ16" s="0" t="s">
-        <v>97</v>
+      <c r="BQ16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BR16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BS16" s="0" t="s">
-        <v>97</v>
+      <c r="BS16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT16" s="2" t="s">
         <v>98</v>
@@ -6903,7 +6834,7 @@
         <v>96</v>
       </c>
       <c r="BW16" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX16" s="0" t="s">
         <v>97</v>
@@ -6914,8 +6845,8 @@
       <c r="BZ16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA16" s="0" t="s">
-        <v>97</v>
+      <c r="CA16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB16" s="0" t="s">
         <v>97</v>
@@ -6923,8 +6854,8 @@
       <c r="CC16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD16" s="0" t="s">
-        <v>97</v>
+      <c r="CD16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE16" s="0" t="s">
         <v>108</v>
@@ -6935,25 +6866,25 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2016.08</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2016.09</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>90</v>
@@ -6962,7 +6893,7 @@
         <v>205</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>1.5</v>
@@ -6971,7 +6902,7 @@
         <v>91</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>93</v>
@@ -6982,11 +6913,11 @@
       <c r="P17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>97</v>
+      <c r="Q17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>97</v>
@@ -7042,8 +6973,8 @@
       <c r="AJ17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AK17" s="0" t="s">
-        <v>97</v>
+      <c r="AK17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AL17" s="0" t="s">
         <v>97</v>
@@ -7075,14 +7006,14 @@
       <c r="AU17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>98</v>
+      <c r="AV17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AY17" s="0" t="s">
         <v>100</v>
@@ -7091,7 +7022,7 @@
         <v>97</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB17" s="2" t="s">
         <v>98</v>
@@ -7099,8 +7030,8 @@
       <c r="BC17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD17" s="0" t="s">
-        <v>102</v>
+      <c r="BD17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE17" s="0" t="s">
         <v>96</v>
@@ -7108,8 +7039,8 @@
       <c r="BF17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG17" s="2" t="s">
-        <v>98</v>
+      <c r="BG17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH17" s="2" t="s">
         <v>98</v>
@@ -7118,7 +7049,7 @@
         <v>97</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="BK17" s="2" t="s">
         <v>123</v>
@@ -7130,13 +7061,13 @@
         <v>105</v>
       </c>
       <c r="BN17" s="0" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="BO17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP17" s="0" t="s">
-        <v>97</v>
+        <v>161</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ17" s="2" t="s">
         <v>98</v>
@@ -7147,11 +7078,11 @@
       <c r="BS17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BT17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU17" s="0" t="s">
-        <v>97</v>
+      <c r="BT17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV17" s="0" t="s">
         <v>96</v>
@@ -7189,46 +7120,46 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2017.03</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>6.8</v>
+      <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>114</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>94</v>
@@ -7236,11 +7167,11 @@
       <c r="P18" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>98</v>
+      <c r="Q18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>97</v>
@@ -7276,10 +7207,10 @@
         <v>98</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>98</v>
@@ -7293,11 +7224,11 @@
       <c r="AI18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>98</v>
+      <c r="AJ18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL18" s="0" t="s">
         <v>97</v>
@@ -7344,8 +7275,8 @@
       <c r="AZ18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA18" s="0" t="s">
-        <v>101</v>
+      <c r="BA18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB18" s="2" t="s">
         <v>98</v>
@@ -7353,8 +7284,8 @@
       <c r="BC18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD18" s="2" t="s">
-        <v>98</v>
+      <c r="BD18" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE18" s="0" t="s">
         <v>96</v>
@@ -7362,44 +7293,44 @@
       <c r="BF18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG18" s="0" t="s">
-        <v>97</v>
+      <c r="BG18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BI18" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL18" s="2" t="s">
-        <v>98</v>
+        <v>198</v>
+      </c>
+      <c r="BL18" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="BM18" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN18" s="0" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="BO18" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP18" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="BP18" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BQ18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BR18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS18" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BS18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT18" s="0" t="s">
         <v>97</v>
@@ -7411,19 +7342,19 @@
         <v>96</v>
       </c>
       <c r="BW18" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY18" s="2" t="s">
-        <v>98</v>
+      <c r="BY18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA18" s="2" t="s">
-        <v>98</v>
+      <c r="CA18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB18" s="0" t="s">
         <v>97</v>
@@ -7431,46 +7362,46 @@
       <c r="CC18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD18" s="2" t="s">
-        <v>98</v>
+      <c r="CD18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF18" s="0" t="s">
-        <v>97</v>
+      <c r="CF18" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2017.03</v>
+        <v>2016.09</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>98</v>
+      <c r="I19" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>6.8</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1.6</v>
@@ -7491,7 +7422,7 @@
         <v>95</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="R19" s="0" t="s">
         <v>97</v>
@@ -7530,10 +7461,10 @@
         <v>98</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>98</v>
@@ -7598,8 +7529,8 @@
       <c r="AZ19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA19" s="2" t="s">
-        <v>98</v>
+      <c r="BA19" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="BB19" s="2" t="s">
         <v>98</v>
@@ -7623,28 +7554,28 @@
         <v>98</v>
       </c>
       <c r="BI19" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL19" s="0" t="s">
-        <v>139</v>
+        <v>198</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BM19" s="2" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="BN19" s="0" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="BO19" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="BP19" s="0" t="s">
-        <v>116</v>
+      <c r="BP19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ19" s="2" t="s">
         <v>98</v>
@@ -7670,14 +7601,14 @@
       <c r="BX19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY19" s="0" t="s">
-        <v>97</v>
+      <c r="BY19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA19" s="0" t="s">
-        <v>97</v>
+      <c r="CA19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB19" s="0" t="s">
         <v>97</v>
@@ -7686,13 +7617,13 @@
         <v>98</v>
       </c>
       <c r="CD19" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="CE19" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF19" s="2" t="s">
-        <v>98</v>
+        <v>204</v>
+      </c>
+      <c r="CF19" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,40 +7631,40 @@
         <v>205</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2016.09</v>
+        <v>2017.04</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>185</v>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>129</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>130</v>
@@ -7744,11 +7675,11 @@
       <c r="P20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>97</v>
+      <c r="Q20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>97</v>
@@ -7783,11 +7714,11 @@
       <c r="AC20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>98</v>
+      <c r="AD20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>98</v>
@@ -7801,8 +7732,8 @@
       <c r="AI20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ20" s="2" t="s">
-        <v>98</v>
+      <c r="AJ20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK20" s="0" t="s">
         <v>97</v>
@@ -7852,8 +7783,8 @@
       <c r="AZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA20" s="0" t="s">
-        <v>208</v>
+      <c r="BA20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB20" s="2" t="s">
         <v>98</v>
@@ -7880,46 +7811,46 @@
         <v>97</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="BL20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BM20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP20" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BQ20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BR20" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS20" s="0" t="s">
-        <v>97</v>
+        <v>97</v>
+      </c>
+      <c r="BS20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU20" s="2" t="s">
-        <v>98</v>
+      <c r="BU20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV20" s="0" t="s">
         <v>96</v>
       </c>
       <c r="BW20" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX20" s="0" t="s">
         <v>97</v>
@@ -7930,8 +7861,8 @@
       <c r="BZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA20" s="2" t="s">
-        <v>98</v>
+      <c r="CA20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB20" s="0" t="s">
         <v>97</v>
@@ -7939,22 +7870,22 @@
       <c r="CC20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD20" s="0" t="s">
-        <v>116</v>
+      <c r="CD20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE20" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF20" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>86</v>
@@ -7963,22 +7894,22 @@
         <v>2017.04</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
+      <c r="I21" s="0" t="n">
+        <v>180</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>1.8</v>
@@ -7986,20 +7917,14 @@
       <c r="L21" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="O21" s="0" t="s">
         <v>94</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>98</v>
+      <c r="Q21" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>98</v>
@@ -8055,8 +7980,8 @@
       <c r="AI21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ21" s="0" t="s">
-        <v>97</v>
+      <c r="AJ21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AK21" s="0" t="s">
         <v>97</v>
@@ -8115,8 +8040,8 @@
       <c r="BC21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD21" s="0" t="s">
-        <v>102</v>
+      <c r="BD21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE21" s="0" t="s">
         <v>96</v>
@@ -8178,8 +8103,8 @@
       <c r="BX21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY21" s="2" t="s">
-        <v>98</v>
+      <c r="BY21" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ21" s="0" t="s">
         <v>97</v>
@@ -8204,41 +8129,47 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>214</v>
+      <c r="A22" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2017.04</v>
+        <v>2016.04</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>94</v>
@@ -8285,11 +8216,11 @@
       <c r="AC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE22" s="0" t="s">
-        <v>97</v>
+      <c r="AD22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>98</v>
@@ -8303,8 +8234,8 @@
       <c r="AI22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>98</v>
+      <c r="AJ22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK22" s="0" t="s">
         <v>97</v>
@@ -8339,17 +8270,17 @@
       <c r="AU22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW22" s="0" t="s">
-        <v>97</v>
+      <c r="AV22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AX22" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY22" s="0" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="AZ22" s="0" t="s">
         <v>97</v>
@@ -8363,17 +8294,17 @@
       <c r="BC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD22" s="2" t="s">
-        <v>98</v>
+      <c r="BD22" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE22" s="0" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="BF22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG22" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BG22" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BH22" s="2" t="s">
         <v>98</v>
@@ -8382,22 +8313,22 @@
         <v>97</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="BK22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL22" s="2" t="s">
-        <v>98</v>
+      <c r="BL22" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="BM22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO22" s="2" t="s">
-        <v>106</v>
+      <c r="BN22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO22" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BP22" s="0" t="s">
         <v>97</v>
@@ -8405,17 +8336,17 @@
       <c r="BQ22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS22" s="2" t="s">
-        <v>98</v>
+      <c r="BR22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU22" s="0" t="s">
-        <v>97</v>
+      <c r="BU22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV22" s="0" t="s">
         <v>96</v>
@@ -8426,14 +8357,14 @@
       <c r="BX22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY22" s="0" t="s">
-        <v>97</v>
+      <c r="BY22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA22" s="0" t="s">
-        <v>97</v>
+      <c r="CA22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB22" s="0" t="s">
         <v>97</v>
@@ -8445,45 +8376,45 @@
         <v>98</v>
       </c>
       <c r="CE22" s="0" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="CF22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>216</v>
+      <c r="A23" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.08</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>212</v>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>6.3</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>91</v>
@@ -8503,8 +8434,8 @@
       <c r="Q23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>98</v>
+      <c r="R23" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>97</v>
@@ -8527,23 +8458,23 @@
       <c r="Y23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>98</v>
+      <c r="Z23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>98</v>
@@ -8554,8 +8485,8 @@
       <c r="AH23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>98</v>
+      <c r="AI23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AJ23" s="0" t="s">
         <v>97</v>
@@ -8593,23 +8524,23 @@
       <c r="AU23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>98</v>
+      <c r="AV23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AX23" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY23" s="0" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="AZ23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA23" s="2" t="s">
-        <v>98</v>
+      <c r="BA23" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB23" s="2" t="s">
         <v>98</v>
@@ -8621,49 +8552,49 @@
         <v>102</v>
       </c>
       <c r="BE23" s="0" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="BF23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN23" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO23" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ23" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="BG23" s="0" t="s">
+      <c r="BR23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS23" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL23" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS23" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="BT23" s="0" t="s">
         <v>97</v>
@@ -8675,7 +8606,7 @@
         <v>96</v>
       </c>
       <c r="BW23" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX23" s="0" t="s">
         <v>97</v>
@@ -8686,8 +8617,8 @@
       <c r="BZ23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA23" s="2" t="s">
-        <v>98</v>
+      <c r="CA23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB23" s="0" t="s">
         <v>97</v>
@@ -8695,272 +8626,18 @@
       <c r="CC23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD23" s="2" t="s">
-        <v>98</v>
+      <c r="CD23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE23" s="0" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="CF23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY24" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD24" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL24" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW24" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE24" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF24" s="2" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF24"/>
+  <autoFilter ref="A1:CF23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8977,10 +8654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF24"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9568,10 +9245,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>86</v>
@@ -9580,13 +9257,13 @@
         <v>2017.02</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>90</v>
@@ -9733,7 +9410,7 @@
         <v>98</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BE3" s="0" t="s">
         <v>96</v>
@@ -9751,7 +9428,7 @@
         <v>97</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="BK3" s="2" t="s">
         <v>118</v>
@@ -9822,10 +9499,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>86</v>
@@ -9834,13 +9511,13 @@
         <v>2017.02</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>90</v>
@@ -9987,7 +9664,7 @@
         <v>98</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BE4" s="0" t="s">
         <v>96</v>
@@ -10005,7 +9682,7 @@
         <v>97</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="BK4" s="2" t="s">
         <v>118</v>
@@ -10076,10 +9753,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>86</v>
@@ -10088,13 +9765,13 @@
         <v>2016.09</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>90</v>
@@ -10330,10 +10007,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>143</v>
@@ -10342,13 +10019,13 @@
         <v>2016.08</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>90</v>
@@ -10838,10 +10515,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>86</v>
@@ -10850,13 +10527,13 @@
         <v>2016.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>90</v>
@@ -11033,10 +10710,10 @@
         <v>160</v>
       </c>
       <c r="BN8" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BO8" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BP8" s="0" t="s">
         <v>97</v>
@@ -11092,10 +10769,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>86</v>
@@ -11104,13 +10781,13 @@
         <v>2017.03</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>90</v>
@@ -11179,7 +10856,7 @@
         <v>98</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AE9" s="0" t="s">
         <v>116</v>
@@ -11275,10 +10952,10 @@
         <v>116</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="BL9" s="0" t="s">
         <v>139</v>
@@ -11287,7 +10964,7 @@
         <v>105</v>
       </c>
       <c r="BN9" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BO9" s="0" t="s">
         <v>124</v>
@@ -11346,10 +11023,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>86</v>
@@ -11358,13 +11035,13 @@
         <v>2016.09</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>90</v>
@@ -11394,7 +11071,7 @@
         <v>95</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>97</v>
@@ -11502,7 +11179,7 @@
         <v>97</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="BB10" s="2" t="s">
         <v>98</v>
@@ -11532,7 +11209,7 @@
         <v>98</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="BL10" s="2" t="s">
         <v>98</v>
@@ -11592,7 +11269,7 @@
         <v>116</v>
       </c>
       <c r="CE10" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="CF10" s="0" t="s">
         <v>97</v>
@@ -12616,10 +12293,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>86</v>
@@ -12634,7 +12311,7 @@
         <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>90</v>
@@ -12766,7 +12443,7 @@
         <v>97</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AZ15" s="0" t="s">
         <v>97</v>
@@ -12784,7 +12461,7 @@
         <v>102</v>
       </c>
       <c r="BE15" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BF15" s="0" t="s">
         <v>116</v>
@@ -12805,7 +12482,7 @@
         <v>123</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BM15" s="2" t="s">
         <v>105</v>
@@ -12862,7 +12539,7 @@
         <v>98</v>
       </c>
       <c r="CE15" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="CF15" s="2" t="s">
         <v>98</v>
@@ -13629,10 +13306,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>86</v>
@@ -13641,13 +13318,13 @@
         <v>2017.04</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>90</v>
@@ -14128,10 +13805,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>86</v>
@@ -14140,7 +13817,7 @@
         <v>2017.04</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>176</v>
@@ -14376,46 +14053,46 @@
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2015.04</v>
+        <v>2015.1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>8.2</v>
+        <v>7.4</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>114</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>94</v>
@@ -14426,8 +14103,8 @@
       <c r="Q22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R22" s="0" t="s">
-        <v>97</v>
+      <c r="R22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>97</v>
@@ -14463,7 +14140,7 @@
         <v>98</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE22" s="0" t="s">
         <v>97</v>
@@ -14490,7 +14167,7 @@
         <v>97</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AN22" s="0" t="s">
         <v>97</v>
@@ -14501,8 +14178,8 @@
       <c r="AP22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AQ22" s="2" t="s">
-        <v>98</v>
+      <c r="AQ22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AR22" s="2" t="s">
         <v>98</v>
@@ -14526,31 +14203,31 @@
         <v>97</v>
       </c>
       <c r="AY22" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ22" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA22" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BC22" s="0" t="s">
-        <v>97</v>
+      <c r="BC22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BD22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BE22" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG22" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH22" s="2" t="s">
         <v>98</v>
@@ -14559,7 +14236,7 @@
         <v>97</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="BK22" s="2" t="s">
         <v>123</v>
@@ -14568,13 +14245,13 @@
         <v>98</v>
       </c>
       <c r="BM22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="BN22" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BO22" s="0" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="BP22" s="0" t="s">
         <v>97</v>
@@ -14591,20 +14268,20 @@
       <c r="BT22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU22" s="0" t="s">
-        <v>97</v>
+      <c r="BU22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW22" s="2" t="s">
-        <v>98</v>
+      <c r="BW22" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="BX22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY22" s="0" t="s">
-        <v>97</v>
+      <c r="BY22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ22" s="0" t="s">
         <v>97</v>
@@ -14618,8 +14295,8 @@
       <c r="CC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD22" s="0" t="s">
-        <v>97</v>
+      <c r="CD22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE22" s="0" t="s">
         <v>108</v>
@@ -14630,46 +14307,46 @@
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2015.1</v>
+        <v>2017.04</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>197</v>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>114</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>94</v>
@@ -14678,49 +14355,49 @@
         <v>95</v>
       </c>
       <c r="Q23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE23" s="0" t="s">
-        <v>97</v>
+      <c r="AE23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>98</v>
@@ -14734,8 +14411,8 @@
       <c r="AI23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ23" s="2" t="s">
-        <v>98</v>
+      <c r="AJ23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK23" s="0" t="s">
         <v>97</v>
@@ -14743,8 +14420,8 @@
       <c r="AL23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM23" s="0" t="s">
-        <v>116</v>
+      <c r="AM23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AN23" s="0" t="s">
         <v>97</v>
@@ -14755,8 +14432,8 @@
       <c r="AP23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AQ23" s="0" t="s">
-        <v>97</v>
+      <c r="AQ23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AR23" s="2" t="s">
         <v>98</v>
@@ -14780,13 +14457,13 @@
         <v>97</v>
       </c>
       <c r="AY23" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AZ23" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA23" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="BB23" s="2" t="s">
         <v>98</v>
@@ -14798,13 +14475,13 @@
         <v>98</v>
       </c>
       <c r="BE23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="BF23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH23" s="2" t="s">
         <v>98</v>
@@ -14813,22 +14490,22 @@
         <v>97</v>
       </c>
       <c r="BJ23" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL23" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
+      </c>
+      <c r="BL23" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="BM23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN23" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BO23" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BP23" s="0" t="s">
         <v>97</v>
@@ -14852,13 +14529,13 @@
         <v>96</v>
       </c>
       <c r="BW23" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY23" s="2" t="s">
-        <v>98</v>
+      <c r="BY23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ23" s="0" t="s">
         <v>97</v>
@@ -14872,267 +14549,13 @@
       <c r="CC23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD23" s="2" t="s">
-        <v>98</v>
+      <c r="CD23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE23" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF23" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL24" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN24" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO24" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW24" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE24" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF24" s="0" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15152,10 +14575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF24"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18524,16 +17947,16 @@
         <v>179</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2015.04</v>
+        <v>2017.02</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>181</v>
@@ -18545,16 +17968,16 @@
         <v>210</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>8.2</v>
+        <v>5.9</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>93</v>
@@ -18605,7 +18028,7 @@
         <v>98</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE14" s="0" t="s">
         <v>97</v>
@@ -18631,8 +18054,8 @@
       <c r="AL14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM14" s="0" t="s">
-        <v>97</v>
+      <c r="AM14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AN14" s="0" t="s">
         <v>97</v>
@@ -18668,22 +18091,22 @@
         <v>97</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BC14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD14" s="2" t="s">
-        <v>98</v>
+      <c r="BC14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD14" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="BE14" s="0" t="s">
         <v>96</v>
@@ -18694,29 +18117,29 @@
       <c r="BG14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BH14" s="2" t="s">
-        <v>98</v>
+      <c r="BH14" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BI14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BL14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="BN14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO14" s="0" t="s">
-        <v>182</v>
+      <c r="BO14" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BP14" s="0" t="s">
         <v>97</v>
@@ -18727,11 +18150,11 @@
       <c r="BR14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BS14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT14" s="0" t="s">
-        <v>97</v>
+      <c r="BS14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BU14" s="0" t="s">
         <v>97</v>
@@ -18739,14 +18162,14 @@
       <c r="BV14" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW14" s="2" t="s">
-        <v>98</v>
+      <c r="BW14" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="BX14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY14" s="0" t="s">
-        <v>97</v>
+      <c r="BY14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ14" s="0" t="s">
         <v>97</v>
@@ -18772,10 +18195,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>86</v>
@@ -18784,13 +18207,13 @@
         <v>2017.02</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>90</v>
@@ -18849,11 +18272,11 @@
       <c r="Z15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>98</v>
+      <c r="AA15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>98</v>
@@ -18870,8 +18293,8 @@
       <c r="AG15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>98</v>
+      <c r="AH15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AI15" s="2" t="s">
         <v>98</v>
@@ -18937,7 +18360,7 @@
         <v>98</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BE15" s="0" t="s">
         <v>96</v>
@@ -18955,7 +18378,7 @@
         <v>97</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="BK15" s="2" t="s">
         <v>118</v>
@@ -18975,8 +18398,8 @@
       <c r="BP15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BQ15" s="2" t="s">
-        <v>98</v>
+      <c r="BQ15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BR15" s="0" t="s">
         <v>97</v>
@@ -19026,34 +18449,34 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2017.02</v>
+        <v>2016.09</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>1.5</v>
@@ -19103,11 +18526,11 @@
       <c r="Z16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AA16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB16" s="0" t="s">
-        <v>97</v>
+      <c r="AA16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>98</v>
@@ -19124,14 +18547,14 @@
       <c r="AG16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH16" s="0" t="s">
-        <v>97</v>
+      <c r="AH16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>98</v>
+      <c r="AJ16" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK16" s="0" t="s">
         <v>97</v>
@@ -19166,23 +18589,23 @@
       <c r="AU16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX16" s="0" t="s">
-        <v>97</v>
+      <c r="AV16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AZ16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="BB16" s="2" t="s">
         <v>98</v>
@@ -19191,7 +18614,7 @@
         <v>98</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="BE16" s="0" t="s">
         <v>96</v>
@@ -19199,20 +18622,20 @@
       <c r="BF16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH16" s="0" t="s">
-        <v>97</v>
+      <c r="BG16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BI16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BL16" s="2" t="s">
         <v>98</v>
@@ -19220,23 +18643,23 @@
       <c r="BM16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>106</v>
+      <c r="BN16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO16" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BP16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BQ16" s="0" t="s">
-        <v>97</v>
+      <c r="BQ16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BR16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BS16" s="0" t="s">
-        <v>97</v>
+      <c r="BS16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT16" s="2" t="s">
         <v>98</v>
@@ -19248,7 +18671,7 @@
         <v>96</v>
       </c>
       <c r="BW16" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX16" s="0" t="s">
         <v>97</v>
@@ -19259,8 +18682,8 @@
       <c r="BZ16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA16" s="0" t="s">
-        <v>97</v>
+      <c r="CA16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB16" s="0" t="s">
         <v>97</v>
@@ -19268,8 +18691,8 @@
       <c r="CC16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD16" s="0" t="s">
-        <v>97</v>
+      <c r="CD16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE16" s="0" t="s">
         <v>108</v>
@@ -19280,25 +18703,25 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2016.08</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2016.09</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>90</v>
@@ -19307,7 +18730,7 @@
         <v>205</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>1.5</v>
@@ -19316,7 +18739,7 @@
         <v>91</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>93</v>
@@ -19327,11 +18750,11 @@
       <c r="P17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>97</v>
+      <c r="Q17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>97</v>
@@ -19387,8 +18810,8 @@
       <c r="AJ17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AK17" s="0" t="s">
-        <v>97</v>
+      <c r="AK17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AL17" s="0" t="s">
         <v>97</v>
@@ -19420,14 +18843,14 @@
       <c r="AU17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>98</v>
+      <c r="AV17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AY17" s="0" t="s">
         <v>100</v>
@@ -19436,7 +18859,7 @@
         <v>97</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB17" s="2" t="s">
         <v>98</v>
@@ -19444,8 +18867,8 @@
       <c r="BC17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD17" s="0" t="s">
-        <v>102</v>
+      <c r="BD17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE17" s="0" t="s">
         <v>96</v>
@@ -19453,8 +18876,8 @@
       <c r="BF17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG17" s="2" t="s">
-        <v>98</v>
+      <c r="BG17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH17" s="2" t="s">
         <v>98</v>
@@ -19463,7 +18886,7 @@
         <v>97</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="BK17" s="2" t="s">
         <v>123</v>
@@ -19475,13 +18898,13 @@
         <v>105</v>
       </c>
       <c r="BN17" s="0" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="BO17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP17" s="0" t="s">
-        <v>97</v>
+        <v>161</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ17" s="2" t="s">
         <v>98</v>
@@ -19492,11 +18915,11 @@
       <c r="BS17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BT17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU17" s="0" t="s">
-        <v>97</v>
+      <c r="BT17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV17" s="0" t="s">
         <v>96</v>
@@ -19534,46 +18957,46 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2017.03</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>6.8</v>
+      <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>114</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>94</v>
@@ -19581,11 +19004,11 @@
       <c r="P18" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>98</v>
+      <c r="Q18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>97</v>
@@ -19621,10 +19044,10 @@
         <v>98</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>98</v>
@@ -19638,11 +19061,11 @@
       <c r="AI18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>98</v>
+      <c r="AJ18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL18" s="0" t="s">
         <v>97</v>
@@ -19689,8 +19112,8 @@
       <c r="AZ18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA18" s="0" t="s">
-        <v>101</v>
+      <c r="BA18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB18" s="2" t="s">
         <v>98</v>
@@ -19698,8 +19121,8 @@
       <c r="BC18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD18" s="2" t="s">
-        <v>98</v>
+      <c r="BD18" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE18" s="0" t="s">
         <v>96</v>
@@ -19707,44 +19130,44 @@
       <c r="BF18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG18" s="0" t="s">
-        <v>97</v>
+      <c r="BG18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BI18" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL18" s="2" t="s">
-        <v>98</v>
+        <v>198</v>
+      </c>
+      <c r="BL18" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="BM18" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN18" s="0" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="BO18" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP18" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="BP18" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BQ18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BR18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS18" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BS18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT18" s="0" t="s">
         <v>97</v>
@@ -19756,19 +19179,19 @@
         <v>96</v>
       </c>
       <c r="BW18" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY18" s="2" t="s">
-        <v>98</v>
+      <c r="BY18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA18" s="2" t="s">
-        <v>98</v>
+      <c r="CA18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB18" s="0" t="s">
         <v>97</v>
@@ -19776,46 +19199,46 @@
       <c r="CC18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD18" s="2" t="s">
-        <v>98</v>
+      <c r="CD18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF18" s="0" t="s">
-        <v>97</v>
+      <c r="CF18" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2017.03</v>
+        <v>2016.09</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>98</v>
+      <c r="I19" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>6.8</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1.6</v>
@@ -19836,7 +19259,7 @@
         <v>95</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="R19" s="0" t="s">
         <v>97</v>
@@ -19875,10 +19298,10 @@
         <v>98</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>98</v>
@@ -19943,8 +19366,8 @@
       <c r="AZ19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA19" s="2" t="s">
-        <v>98</v>
+      <c r="BA19" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="BB19" s="2" t="s">
         <v>98</v>
@@ -19968,28 +19391,28 @@
         <v>98</v>
       </c>
       <c r="BI19" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL19" s="0" t="s">
-        <v>139</v>
+        <v>198</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BM19" s="2" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="BN19" s="0" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="BO19" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="BP19" s="0" t="s">
-        <v>116</v>
+      <c r="BP19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ19" s="2" t="s">
         <v>98</v>
@@ -20015,14 +19438,14 @@
       <c r="BX19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY19" s="0" t="s">
-        <v>97</v>
+      <c r="BY19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA19" s="0" t="s">
-        <v>97</v>
+      <c r="CA19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB19" s="0" t="s">
         <v>97</v>
@@ -20031,13 +19454,13 @@
         <v>98</v>
       </c>
       <c r="CD19" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="CE19" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF19" s="2" t="s">
-        <v>98</v>
+        <v>204</v>
+      </c>
+      <c r="CF19" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20045,40 +19468,40 @@
         <v>205</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2016.09</v>
+        <v>2017.04</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>185</v>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>129</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>130</v>
@@ -20089,11 +19512,11 @@
       <c r="P20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>97</v>
+      <c r="Q20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>97</v>
@@ -20128,11 +19551,11 @@
       <c r="AC20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>98</v>
+      <c r="AD20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>98</v>
@@ -20146,8 +19569,8 @@
       <c r="AI20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ20" s="2" t="s">
-        <v>98</v>
+      <c r="AJ20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK20" s="0" t="s">
         <v>97</v>
@@ -20197,8 +19620,8 @@
       <c r="AZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA20" s="0" t="s">
-        <v>208</v>
+      <c r="BA20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB20" s="2" t="s">
         <v>98</v>
@@ -20225,46 +19648,46 @@
         <v>97</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="BL20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BM20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP20" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BQ20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BR20" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS20" s="0" t="s">
-        <v>97</v>
+        <v>97</v>
+      </c>
+      <c r="BS20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU20" s="2" t="s">
-        <v>98</v>
+      <c r="BU20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV20" s="0" t="s">
         <v>96</v>
       </c>
       <c r="BW20" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX20" s="0" t="s">
         <v>97</v>
@@ -20275,8 +19698,8 @@
       <c r="BZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA20" s="2" t="s">
-        <v>98</v>
+      <c r="CA20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB20" s="0" t="s">
         <v>97</v>
@@ -20284,22 +19707,22 @@
       <c r="CC20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD20" s="0" t="s">
-        <v>116</v>
+      <c r="CD20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE20" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF20" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>86</v>
@@ -20308,22 +19731,22 @@
         <v>2017.04</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
+      <c r="I21" s="0" t="n">
+        <v>180</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>1.8</v>
@@ -20331,20 +19754,14 @@
       <c r="L21" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="O21" s="0" t="s">
         <v>94</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>98</v>
+      <c r="Q21" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>98</v>
@@ -20400,8 +19817,8 @@
       <c r="AI21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ21" s="0" t="s">
-        <v>97</v>
+      <c r="AJ21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AK21" s="0" t="s">
         <v>97</v>
@@ -20460,8 +19877,8 @@
       <c r="BC21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD21" s="0" t="s">
-        <v>102</v>
+      <c r="BD21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE21" s="0" t="s">
         <v>96</v>
@@ -20523,8 +19940,8 @@
       <c r="BX21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY21" s="2" t="s">
-        <v>98</v>
+      <c r="BY21" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ21" s="0" t="s">
         <v>97</v>
@@ -20549,41 +19966,47 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>214</v>
+      <c r="A22" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2017.04</v>
+        <v>2016.04</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>94</v>
@@ -20630,11 +20053,11 @@
       <c r="AC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE22" s="0" t="s">
-        <v>97</v>
+      <c r="AD22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>98</v>
@@ -20648,8 +20071,8 @@
       <c r="AI22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>98</v>
+      <c r="AJ22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK22" s="0" t="s">
         <v>97</v>
@@ -20684,17 +20107,17 @@
       <c r="AU22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW22" s="0" t="s">
-        <v>97</v>
+      <c r="AV22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AX22" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY22" s="0" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="AZ22" s="0" t="s">
         <v>97</v>
@@ -20708,17 +20131,17 @@
       <c r="BC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD22" s="2" t="s">
-        <v>98</v>
+      <c r="BD22" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE22" s="0" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="BF22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG22" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BG22" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BH22" s="2" t="s">
         <v>98</v>
@@ -20727,22 +20150,22 @@
         <v>97</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="BK22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL22" s="2" t="s">
-        <v>98</v>
+      <c r="BL22" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="BM22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO22" s="2" t="s">
-        <v>106</v>
+      <c r="BN22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO22" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BP22" s="0" t="s">
         <v>97</v>
@@ -20750,17 +20173,17 @@
       <c r="BQ22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS22" s="2" t="s">
-        <v>98</v>
+      <c r="BR22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU22" s="0" t="s">
-        <v>97</v>
+      <c r="BU22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV22" s="0" t="s">
         <v>96</v>
@@ -20771,14 +20194,14 @@
       <c r="BX22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY22" s="0" t="s">
-        <v>97</v>
+      <c r="BY22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA22" s="0" t="s">
-        <v>97</v>
+      <c r="CA22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB22" s="0" t="s">
         <v>97</v>
@@ -20790,45 +20213,45 @@
         <v>98</v>
       </c>
       <c r="CE22" s="0" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="CF22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>216</v>
+      <c r="A23" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.08</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>212</v>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>6.3</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>91</v>
@@ -20848,8 +20271,8 @@
       <c r="Q23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>98</v>
+      <c r="R23" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>97</v>
@@ -20872,23 +20295,23 @@
       <c r="Y23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>98</v>
+      <c r="Z23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>98</v>
@@ -20899,8 +20322,8 @@
       <c r="AH23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>98</v>
+      <c r="AI23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AJ23" s="0" t="s">
         <v>97</v>
@@ -20938,23 +20361,23 @@
       <c r="AU23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>98</v>
+      <c r="AV23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AX23" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY23" s="0" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="AZ23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA23" s="2" t="s">
-        <v>98</v>
+      <c r="BA23" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB23" s="2" t="s">
         <v>98</v>
@@ -20966,49 +20389,49 @@
         <v>102</v>
       </c>
       <c r="BE23" s="0" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="BF23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN23" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO23" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ23" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="BG23" s="0" t="s">
+      <c r="BR23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS23" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL23" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS23" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="BT23" s="0" t="s">
         <v>97</v>
@@ -21020,7 +20443,7 @@
         <v>96</v>
       </c>
       <c r="BW23" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX23" s="0" t="s">
         <v>97</v>
@@ -21031,8 +20454,8 @@
       <c r="BZ23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA23" s="2" t="s">
-        <v>98</v>
+      <c r="CA23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB23" s="0" t="s">
         <v>97</v>
@@ -21040,272 +20463,18 @@
       <c r="CC23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD23" s="2" t="s">
-        <v>98</v>
+      <c r="CD23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE23" s="0" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="CF23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY24" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD24" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL24" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS24" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV24" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW24" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE24" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF24" s="2" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF24"/>
+  <autoFilter ref="A1:CF23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -21322,49 +20491,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="38.9226804123711"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4329896907216"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21377,9 +20584,19 @@
         <v>149</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21387,6 +20604,14 @@
         <v>162</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>168</v>
@@ -21397,70 +20622,101 @@
         <v>174</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
-        <v>205</v>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>214</v>
+      <c r="A41" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>222</v>
+      <c r="A43" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,20 +14,22 @@
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="224">
   <si>
     <t>车型</t>
   </si>
@@ -2550,6 +2552,12 @@
     <t>4534*1823*1483</t>
   </si>
   <si>
+    <t>电子无级变速箱(E-CVT)</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <r>
       <t>LANNIA 蓝鸟 </t>
     </r>
@@ -2589,9 +2597,6 @@
       </rPr>
       <t>高能版</t>
     </r>
-  </si>
-  <si>
-    <t> </t>
   </si>
 </sst>
 </file>
@@ -2685,8 +2690,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -14577,7 +14590,7 @@
   </sheetPr>
   <dimension ref="A1:CF23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -14589,13 +14602,13 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2577319587629"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.1134020618557"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7835051546392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="true" max="8" min="8" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.88144329896907"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7113402061856"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3556701030928"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7319587628866"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="true" max="16" min="15" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.3556701030928"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="true" max="25" min="19" style="0" width="0"/>
@@ -14604,39 +14617,33 @@
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="true" max="29" min="29" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="31" min="30" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="true" max="33" min="32" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="true" max="35" min="32" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="39" min="37" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="true" max="42" min="40" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="true" max="47" min="44" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.88144329896907"/>
+    <col collapsed="false" hidden="true" max="47" min="38" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="49" min="48" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="10.7113402061856"/>
+    <col collapsed="false" hidden="true" max="50" min="50" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.3041237113402"/>
     <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="53" min="53" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="true" max="54" min="54" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="true" max="55" min="54" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="56" min="56" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="8.88144329896907"/>
+    <col collapsed="false" hidden="true" max="58" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="12.2577319587629"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="14.3556701030928"/>
+    <col collapsed="false" hidden="true" max="61" min="61" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="18.0103092783505"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="0" width="14.5"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="10.7113402061856"/>
     <col collapsed="false" hidden="false" max="67" min="66" style="0" width="13.6546391752577"/>
     <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.7938144329897"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="true" max="69" min="69" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="8.88144329896907"/>
     <col collapsed="false" hidden="false" max="71" min="71" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="7.05670103092784"/>
+    <col collapsed="false" hidden="true" max="72" min="72" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="73" min="73" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="false" max="76" min="76" style="0" width="14.3556701030928"/>
     <col collapsed="false" hidden="false" max="77" min="77" style="0" width="16.1855670103093"/>
@@ -14903,810 +14910,810 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>2016.04</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="0" t="s">
+      <c r="R2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" s="0" t="s">
+      <c r="AZ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD2" s="0" t="s">
+      <c r="BB2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="0" t="s">
+      <c r="BE2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BF2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BL2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BO2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BP2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV2" s="0" t="s">
+      <c r="BP2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BW2" s="0" t="s">
+      <c r="BW2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BX2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE2" s="0" t="s">
+      <c r="BX2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CF2" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>2016.09</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="3" t="n">
         <v>6.1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" s="0" t="s">
+      <c r="R3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AE3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY3" s="0" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AZ3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA3" s="0" t="s">
+      <c r="AZ3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD3" s="0" t="s">
+      <c r="BB3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE3" s="0" t="s">
+      <c r="BE3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BF3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG3" s="0" t="s">
+      <c r="BF3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BH3" s="0" t="s">
+      <c r="BH3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BI3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BI3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BL3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BL3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BN3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BO3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BP3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV3" s="0" t="s">
+      <c r="BP3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BW3" s="0" t="s">
+      <c r="BW3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BX3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE3" s="0" t="s">
+      <c r="BX3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CF3" s="0" t="s">
+      <c r="CF3" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>2016.04</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>5.9</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" s="0" t="s">
+      <c r="R4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" s="0" t="s">
+      <c r="AE4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AZ4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD4" s="0" t="s">
+      <c r="AZ4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE4" s="0" t="s">
+      <c r="BE4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BF4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BF4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BK4" s="2" t="s">
+      <c r="BK4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BL4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM4" s="2" t="s">
+      <c r="BL4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BN4" s="0" t="s">
+      <c r="BN4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BO4" s="0" t="s">
+      <c r="BO4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BP4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV4" s="0" t="s">
+      <c r="BP4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BW4" s="0" t="s">
+      <c r="BW4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BX4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE4" s="0" t="s">
+      <c r="BX4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CF4" s="0" t="s">
+      <c r="CF4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
+      <c r="A5" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2015.1</v>
+        <v>2017.04</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>190</v>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>94</v>
@@ -15715,49 +15722,49 @@
         <v>95</v>
       </c>
       <c r="Q5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>97</v>
+      <c r="AE5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>98</v>
@@ -15774,8 +15781,8 @@
       <c r="AJ5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AK5" s="2" t="s">
-        <v>98</v>
+      <c r="AK5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL5" s="0" t="s">
         <v>97</v>
@@ -15817,13 +15824,13 @@
         <v>97</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AZ5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA5" s="2" t="s">
-        <v>98</v>
+      <c r="BA5" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="BB5" s="2" t="s">
         <v>98</v>
@@ -15831,8 +15838,8 @@
       <c r="BC5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD5" s="0" t="s">
-        <v>102</v>
+      <c r="BD5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE5" s="0" t="s">
         <v>96</v>
@@ -15840,8 +15847,8 @@
       <c r="BF5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG5" s="2" t="s">
-        <v>98</v>
+      <c r="BG5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>98</v>
@@ -15850,31 +15857,31 @@
         <v>97</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN5" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BO5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR5" s="2" t="s">
-        <v>98</v>
+      <c r="BR5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BS5" s="2" t="s">
         <v>98</v>
@@ -15882,26 +15889,26 @@
       <c r="BT5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU5" s="0" t="s">
-        <v>97</v>
+      <c r="BU5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV5" s="0" t="s">
         <v>96</v>
       </c>
       <c r="BW5" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY5" s="2" t="s">
-        <v>98</v>
+      <c r="BY5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA5" s="2" t="s">
-        <v>98</v>
+      <c r="CA5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB5" s="0" t="s">
         <v>97</v>
@@ -15909,46 +15916,43 @@
       <c r="CC5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD5" s="2" t="s">
-        <v>98</v>
+      <c r="CD5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE5" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF5" s="2" t="s">
-        <v>98</v>
+      <c r="CF5" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>2016.03</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>6.7</v>
+      <c r="I6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>1.8</v>
@@ -15957,7 +15961,7 @@
         <v>129</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>130</v>
@@ -15995,14 +15999,14 @@
       <c r="Y6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>97</v>
+      <c r="Z6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>98</v>
@@ -16028,8 +16032,8 @@
       <c r="AJ6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>98</v>
+      <c r="AK6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL6" s="0" t="s">
         <v>97</v>
@@ -16071,13 +16075,13 @@
         <v>97</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AZ6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA6" s="2" t="s">
-        <v>98</v>
+      <c r="BA6" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB6" s="2" t="s">
         <v>98</v>
@@ -16094,8 +16098,8 @@
       <c r="BF6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG6" s="2" t="s">
-        <v>98</v>
+      <c r="BG6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH6" s="2" t="s">
         <v>98</v>
@@ -16104,7 +16108,7 @@
         <v>97</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="BK6" s="2" t="s">
         <v>123</v>
@@ -16118,11 +16122,11 @@
       <c r="BN6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP6" s="0" t="s">
-        <v>97</v>
+      <c r="BO6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ6" s="2" t="s">
         <v>98</v>
@@ -16145,8 +16149,8 @@
       <c r="BW6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX6" s="0" t="s">
-        <v>97</v>
+      <c r="BX6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BY6" s="2" t="s">
         <v>98</v>
@@ -16169,52 +16173,52 @@
       <c r="CE6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF6" s="0" t="s">
-        <v>97</v>
+      <c r="CF6" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2016.07</v>
+        <v>2017.04</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>94</v>
@@ -16222,11 +16226,11 @@
       <c r="P7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>97</v>
+      <c r="Q7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>97</v>
@@ -16249,11 +16253,11 @@
       <c r="Y7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>97</v>
+      <c r="Z7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>98</v>
@@ -16261,8 +16265,8 @@
       <c r="AC7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD7" s="0" t="s">
-        <v>96</v>
+      <c r="AD7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>97</v>
@@ -16279,8 +16283,8 @@
       <c r="AI7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ7" s="0" t="s">
-        <v>97</v>
+      <c r="AJ7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AK7" s="0" t="s">
         <v>97</v>
@@ -16330,8 +16334,8 @@
       <c r="AZ7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA7" s="0" t="s">
-        <v>101</v>
+      <c r="BA7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB7" s="2" t="s">
         <v>98</v>
@@ -16339,8 +16343,8 @@
       <c r="BC7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD7" s="0" t="s">
-        <v>102</v>
+      <c r="BD7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE7" s="0" t="s">
         <v>96</v>
@@ -16348,32 +16352,32 @@
       <c r="BF7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG7" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH7" s="0" t="s">
-        <v>116</v>
+      <c r="BG7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BI7" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="BK7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL7" s="0" t="s">
-        <v>139</v>
+      <c r="BL7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BM7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN7" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO7" s="0" t="s">
-        <v>140</v>
+      <c r="BN7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BP7" s="0" t="s">
         <v>97</v>
@@ -16384,26 +16388,26 @@
       <c r="BR7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BS7" s="0" t="s">
-        <v>116</v>
+      <c r="BS7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU7" s="2" t="s">
-        <v>98</v>
+      <c r="BU7" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV7" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY7" s="2" t="s">
-        <v>98</v>
+      <c r="BW7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY7" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ7" s="0" t="s">
         <v>97</v>
@@ -16417,49 +16421,49 @@
       <c r="CC7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD7" s="0" t="s">
-        <v>97</v>
+      <c r="CD7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE7" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF7" s="0" t="s">
-        <v>97</v>
+      <c r="CF7" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2015.1</v>
+        <v>2016.09</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>129</v>
@@ -16468,7 +16472,7 @@
         <v>114</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>94</v>
@@ -16477,10 +16481,10 @@
         <v>95</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>98</v>
+        <v>202</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>97</v>
@@ -16518,8 +16522,8 @@
       <c r="AD8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="0" t="s">
-        <v>97</v>
+      <c r="AE8" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>98</v>
@@ -16542,8 +16546,8 @@
       <c r="AL8" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM8" s="0" t="s">
-        <v>116</v>
+      <c r="AM8" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AN8" s="0" t="s">
         <v>97</v>
@@ -16554,8 +16558,8 @@
       <c r="AP8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AQ8" s="0" t="s">
-        <v>97</v>
+      <c r="AQ8" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AR8" s="2" t="s">
         <v>98</v>
@@ -16579,13 +16583,13 @@
         <v>97</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AZ8" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="BB8" s="2" t="s">
         <v>98</v>
@@ -16593,14 +16597,14 @@
       <c r="BC8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD8" s="2" t="s">
-        <v>98</v>
+      <c r="BD8" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="BF8" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BG8" s="2" t="s">
         <v>98</v>
@@ -16612,16 +16616,16 @@
         <v>97</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="BL8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="BN8" s="0" t="s">
         <v>124</v>
@@ -16629,17 +16633,17 @@
       <c r="BO8" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="BP8" s="0" t="s">
-        <v>97</v>
+      <c r="BP8" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="BR8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS8" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BS8" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT8" s="0" t="s">
         <v>97</v>
@@ -16651,3830 +16655,305 @@
         <v>96</v>
       </c>
       <c r="BW8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF8" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>2016.03</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BX8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE8" s="0" t="s">
+      <c r="BX9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CF8" s="0" t="s">
+      <c r="CF9" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2015.12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>195</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY9" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO9" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF9" s="2" t="s">
-        <v>98</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2016.03</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD10" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY10" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL10" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF10" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY11" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL11" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN11" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO11" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW11" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF11" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY12" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD12" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE12" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY13" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE13" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV13" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE13" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2017.02</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY14" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD14" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE14" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV14" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE14" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF14" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2017.02</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY15" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA15" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD15" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE15" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV15" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE15" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF15" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>2016.09</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY16" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA16" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD16" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE16" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN16" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV16" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE16" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF16" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN17" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO17" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE17" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF17" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2017.03</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY18" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK18" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN18" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW18" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE18" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>2016.09</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY19" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA19" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD19" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN19" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO19" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR19" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD19" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="CE19" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF19" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY20" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE20" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY21" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE21" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2016.04</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD22" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY22" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD22" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE22" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="BF22" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG22" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL22" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="BM22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV22" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE22" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>217</v>
-      </c>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>2016.08</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="P23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA23" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD23" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL23" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN23" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO23" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW23" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE23" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF23" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF23"/>
+  <autoFilter ref="A1:CF7"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20493,8 +16972,8 @@
   </sheetPr>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20505,46 +16984,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>221</v>
+      <c r="A7" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -20552,22 +17031,22 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -20575,37 +17054,37 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -20613,33 +17092,33 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -20647,35 +17126,35 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -20685,37 +17164,37 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>217</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -14,22 +14,28 @@
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CF$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="258">
   <si>
     <t>车型</t>
   </si>
@@ -2552,7 +2558,109 @@
     <t>4534*1823*1483</t>
   </si>
   <si>
+    <t>速腾 2017款 230TSI 自动豪华型</t>
+  </si>
+  <si>
+    <t>一汽-大众</t>
+  </si>
+  <si>
+    <t>1.4T 131马力 L4</t>
+  </si>
+  <si>
+    <t>7挡双离合</t>
+  </si>
+  <si>
+    <t>4门5座三厢车</t>
+  </si>
+  <si>
+    <t>双离合变速箱(DCT)</t>
+  </si>
+  <si>
+    <t>主● / 副●</t>
+  </si>
+  <si>
+    <t>前● / 后-</t>
+  </si>
+  <si>
+    <t>前○ / 后○</t>
+  </si>
+  <si>
+    <t>前● / 后●</t>
+  </si>
+  <si>
+    <t>主● / 副-</t>
+  </si>
+  <si>
+    <t>6.5英寸</t>
+  </si>
+  <si>
+    <t>8-9喇叭</t>
+  </si>
+  <si>
+    <t>参考总价</t>
+  </si>
+  <si>
+    <t>口碑</t>
+  </si>
+  <si>
+    <t>排名（配置）</t>
+  </si>
+  <si>
+    <t>C-CNCAP</t>
+  </si>
+  <si>
+    <t>油耗</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>制动</t>
+  </si>
+  <si>
+    <t>16.50万</t>
+  </si>
+  <si>
+    <t>一个USB口，胎压检测不显示数字，前排储物空间小，无眼镜盒</t>
+  </si>
+  <si>
+    <t>17.61万</t>
+  </si>
+  <si>
+    <t>接缝大，配置低，车漆薄，隔音不好，底盘略低，手套箱无阻尼</t>
+  </si>
+  <si>
+    <t>16.71万</t>
+  </si>
+  <si>
+    <t>后排中间突起，手刹，胎噪，配置低</t>
+  </si>
+  <si>
+    <t>17.45万</t>
+  </si>
+  <si>
     <t>电子无级变速箱(E-CVT)</t>
+  </si>
+  <si>
+    <t>17.23万</t>
+  </si>
+  <si>
+    <t>16.17万</t>
+  </si>
+  <si>
+    <t>扶手箱靠后</t>
+  </si>
+  <si>
+    <t>14.50万</t>
+  </si>
+  <si>
+    <t>后排中间突起，卤素灯，手动空调，轮胎夹石子，手刹，起步肉</t>
+  </si>
+  <si>
+    <t>15.40万</t>
+  </si>
+  <si>
+    <t>配置少，机盖缝隙，织布座椅，卤素灯，自动启停没物理按键</t>
   </si>
   <si>
     <t> </t>
@@ -2635,7 +2743,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2644,8 +2752,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2690,7 +2810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2703,15 +2823,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2719,7 +2843,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2732,6 +2860,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2748,10 +2936,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF23"/>
+  <dimension ref="A1:CF24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8649,6 +8837,260 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA24" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE24" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ24" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BK24" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM24" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN24" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO24" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV24" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW24" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF24" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:CF23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8667,10 +9109,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF23"/>
+  <dimension ref="A1:CF24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11289,56 +11731,56 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>125</v>
+      <c r="A11" s="0" t="s">
+        <v>221</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2015.1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>2016.09</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>130</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>97</v>
@@ -11365,60 +11807,60 @@
         <v>97</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>98</v>
+        <v>98</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>230</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>98</v>
+        <v>98</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AN11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AO11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AO11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AS11" s="0" t="s">
@@ -11440,67 +11882,67 @@
         <v>97</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AZ11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC11" s="2" t="s">
+      <c r="BA11" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BD11" s="0" t="s">
         <v>102</v>
       </c>
       <c r="BE11" s="0" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="BF11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH11" s="2" t="s">
+      <c r="BG11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BI11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BJ11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM11" s="2" t="s">
-        <v>105</v>
+      <c r="BJ11" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BK11" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM11" s="0" t="s">
+        <v>233</v>
       </c>
       <c r="BN11" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BO11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS11" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="BP11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS11" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT11" s="0" t="s">
         <v>97</v>
@@ -11509,81 +11951,81 @@
         <v>97</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="BW11" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY11" s="2" t="s">
+      <c r="BY11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BZ11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA11" s="2" t="s">
+      <c r="CA11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="CB11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CC11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD11" s="2" t="s">
-        <v>98</v>
+      <c r="CC11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD11" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF11" s="2" t="s">
-        <v>98</v>
+      <c r="CF11" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>109</v>
+      <c r="A12" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2016.09</v>
+        <v>2015.1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>94</v>
@@ -11621,17 +12063,17 @@
       <c r="Z12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>98</v>
+      <c r="AA12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" s="0" t="s">
-        <v>96</v>
+      <c r="AD12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AE12" s="0" t="s">
         <v>97</v>
@@ -11651,8 +12093,8 @@
       <c r="AJ12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AK12" s="0" t="s">
-        <v>97</v>
+      <c r="AK12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AL12" s="0" t="s">
         <v>97</v>
@@ -11699,8 +12141,8 @@
       <c r="AZ12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA12" s="0" t="s">
-        <v>101</v>
+      <c r="BA12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB12" s="2" t="s">
         <v>98</v>
@@ -11717,20 +12159,20 @@
       <c r="BF12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG12" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH12" s="0" t="s">
-        <v>116</v>
+      <c r="BG12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BI12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BL12" s="2" t="s">
         <v>98</v>
@@ -11738,20 +12180,20 @@
       <c r="BM12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP12" s="0" t="s">
-        <v>97</v>
+      <c r="BN12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR12" s="0" t="s">
-        <v>97</v>
+      <c r="BR12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BS12" s="2" t="s">
         <v>98</v>
@@ -11759,14 +12201,14 @@
       <c r="BT12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU12" s="2" t="s">
-        <v>98</v>
+      <c r="BU12" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV12" s="0" t="s">
         <v>96</v>
       </c>
       <c r="BW12" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX12" s="0" t="s">
         <v>97</v>
@@ -11777,8 +12219,8 @@
       <c r="BZ12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA12" s="0" t="s">
-        <v>97</v>
+      <c r="CA12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB12" s="0" t="s">
         <v>97</v>
@@ -11786,19 +12228,19 @@
       <c r="CC12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD12" s="0" t="s">
-        <v>97</v>
+      <c r="CD12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE12" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF12" s="0" t="s">
-        <v>97</v>
+      <c r="CF12" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>110</v>
@@ -11807,7 +12249,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.09</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>111</v>
@@ -11816,7 +12258,7 @@
         <v>112</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>90</v>
@@ -11825,7 +12267,7 @@
         <v>215</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1.6</v>
@@ -11872,8 +12314,8 @@
       <c r="Y13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z13" s="2" t="s">
-        <v>98</v>
+      <c r="Z13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>98</v>
@@ -11885,10 +12327,10 @@
         <v>98</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>98</v>
@@ -11938,23 +12380,23 @@
       <c r="AU13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>98</v>
+      <c r="AV13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AX13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AZ13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA13" s="2" t="s">
-        <v>98</v>
+      <c r="BA13" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB13" s="2" t="s">
         <v>98</v>
@@ -11971,11 +12413,11 @@
       <c r="BF13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>98</v>
+      <c r="BG13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH13" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BI13" s="0" t="s">
         <v>97</v>
@@ -11984,7 +12426,7 @@
         <v>117</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BL13" s="2" t="s">
         <v>98</v>
@@ -11992,11 +12434,11 @@
       <c r="BM13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN13" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO13" s="0" t="s">
-        <v>124</v>
+      <c r="BN13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BP13" s="0" t="s">
         <v>97</v>
@@ -12004,8 +12446,8 @@
       <c r="BQ13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR13" s="2" t="s">
-        <v>98</v>
+      <c r="BR13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BS13" s="2" t="s">
         <v>98</v>
@@ -12031,8 +12473,8 @@
       <c r="BZ13" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA13" s="2" t="s">
-        <v>98</v>
+      <c r="CA13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB13" s="0" t="s">
         <v>97</v>
@@ -12040,8 +12482,8 @@
       <c r="CC13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD13" s="2" t="s">
-        <v>98</v>
+      <c r="CD13" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE13" s="0" t="s">
         <v>108</v>
@@ -12052,16 +12494,16 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2016.07</v>
+        <v>2016.04</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>111</v>
@@ -12070,7 +12512,7 @@
         <v>112</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>90</v>
@@ -12079,7 +12521,7 @@
         <v>215</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1.6</v>
@@ -12099,8 +12541,8 @@
       <c r="P14" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>98</v>
+      <c r="Q14" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>97</v>
@@ -12126,11 +12568,11 @@
       <c r="Y14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>97</v>
+      <c r="Z14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>98</v>
@@ -12139,10 +12581,10 @@
         <v>98</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>98</v>
@@ -12192,23 +12634,23 @@
       <c r="AU14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW14" s="0" t="s">
-        <v>97</v>
+      <c r="AV14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AX14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AZ14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA14" s="0" t="s">
-        <v>101</v>
+      <c r="BA14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB14" s="2" t="s">
         <v>98</v>
@@ -12225,32 +12667,32 @@
       <c r="BF14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG14" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH14" s="0" t="s">
-        <v>116</v>
+      <c r="BG14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BI14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="BK14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL14" s="0" t="s">
-        <v>139</v>
+      <c r="BL14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BM14" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN14" s="0" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BO14" s="0" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BP14" s="0" t="s">
         <v>97</v>
@@ -12258,11 +12700,11 @@
       <c r="BQ14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS14" s="0" t="s">
-        <v>116</v>
+      <c r="BR14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BT14" s="0" t="s">
         <v>97</v>
@@ -12273,11 +12715,11 @@
       <c r="BV14" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX14" s="2" t="s">
-        <v>98</v>
+      <c r="BW14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX14" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BY14" s="2" t="s">
         <v>98</v>
@@ -12285,8 +12727,8 @@
       <c r="BZ14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA14" s="0" t="s">
-        <v>97</v>
+      <c r="CA14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB14" s="0" t="s">
         <v>97</v>
@@ -12294,8 +12736,8 @@
       <c r="CC14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD14" s="0" t="s">
-        <v>97</v>
+      <c r="CD14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE14" s="0" t="s">
         <v>108</v>
@@ -12305,17 +12747,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>211</v>
+      <c r="A15" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.07</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>111</v>
@@ -12324,16 +12766,16 @@
         <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>1.6</v>
@@ -12345,7 +12787,7 @@
         <v>114</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>94</v>
@@ -12353,50 +12795,50 @@
       <c r="P15" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>98</v>
+      <c r="AE15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>98</v>
@@ -12446,23 +12888,23 @@
       <c r="AU15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>98</v>
+      <c r="AV15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AX15" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="AZ15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA15" s="2" t="s">
-        <v>98</v>
+      <c r="BA15" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB15" s="2" t="s">
         <v>98</v>
@@ -12474,37 +12916,37 @@
         <v>102</v>
       </c>
       <c r="BE15" s="0" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BG15" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="BH15" s="2" t="s">
-        <v>98</v>
+      <c r="BH15" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BI15" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="BK15" s="2" t="s">
         <v>123</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="BM15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN15" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="BO15" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="BP15" s="0" t="s">
         <v>97</v>
@@ -12512,11 +12954,11 @@
       <c r="BQ15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR15" s="2" t="s">
-        <v>98</v>
+      <c r="BR15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BS15" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BT15" s="0" t="s">
         <v>97</v>
@@ -12527,11 +12969,11 @@
       <c r="BV15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX15" s="0" t="s">
-        <v>97</v>
+      <c r="BW15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BY15" s="2" t="s">
         <v>98</v>
@@ -12539,8 +12981,8 @@
       <c r="BZ15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA15" s="2" t="s">
-        <v>98</v>
+      <c r="CA15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB15" s="0" t="s">
         <v>97</v>
@@ -12548,55 +12990,55 @@
       <c r="CC15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD15" s="2" t="s">
-        <v>98</v>
+      <c r="CD15" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CE15" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF15" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="CF15" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>149</v>
+      <c r="A16" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2015.12</v>
+        <v>2016.04</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>130</v>
@@ -12634,8 +13076,8 @@
       <c r="Y16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z16" s="0" t="s">
-        <v>97</v>
+      <c r="Z16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>98</v>
@@ -12649,8 +13091,8 @@
       <c r="AD16" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="AE16" s="0" t="s">
-        <v>97</v>
+      <c r="AE16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>98</v>
@@ -12700,17 +13142,17 @@
       <c r="AU16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW16" s="0" t="s">
-        <v>97</v>
+      <c r="AV16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AX16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="AZ16" s="0" t="s">
         <v>97</v>
@@ -12728,13 +13170,13 @@
         <v>102</v>
       </c>
       <c r="BE16" s="0" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG16" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="BG16" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="BH16" s="2" t="s">
         <v>98</v>
@@ -12746,16 +13188,16 @@
         <v>103</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL16" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="BL16" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="BM16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>106</v>
+      <c r="BN16" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="BO16" s="0" t="s">
         <v>124</v>
@@ -12769,14 +13211,14 @@
       <c r="BR16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BS16" s="2" t="s">
-        <v>98</v>
+      <c r="BS16" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BT16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU16" s="0" t="s">
-        <v>97</v>
+      <c r="BU16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV16" s="0" t="s">
         <v>96</v>
@@ -12793,8 +13235,8 @@
       <c r="BZ16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA16" s="0" t="s">
-        <v>97</v>
+      <c r="CA16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB16" s="0" t="s">
         <v>97</v>
@@ -12806,7 +13248,7 @@
         <v>98</v>
       </c>
       <c r="CE16" s="0" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="CF16" s="2" t="s">
         <v>98</v>
@@ -12814,34 +13256,34 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2016.03</v>
+        <v>2015.12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>1.8</v>
@@ -12864,8 +13306,8 @@
       <c r="Q17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="0" t="s">
-        <v>97</v>
+      <c r="R17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>97</v>
@@ -12891,17 +13333,17 @@
       <c r="Z17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AA17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB17" s="0" t="s">
-        <v>97</v>
+      <c r="AA17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD17" s="2" t="s">
-        <v>98</v>
+      <c r="AD17" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="AE17" s="0" t="s">
         <v>97</v>
@@ -12918,11 +13360,11 @@
       <c r="AI17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>98</v>
+      <c r="AJ17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL17" s="0" t="s">
         <v>97</v>
@@ -12964,7 +13406,7 @@
         <v>97</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ17" s="0" t="s">
         <v>97</v>
@@ -12978,8 +13420,8 @@
       <c r="BC17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD17" s="2" t="s">
-        <v>98</v>
+      <c r="BD17" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE17" s="0" t="s">
         <v>96</v>
@@ -13000,7 +13442,7 @@
         <v>103</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="BL17" s="2" t="s">
         <v>98</v>
@@ -13020,8 +13462,8 @@
       <c r="BQ17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BR17" s="0" t="s">
-        <v>97</v>
+      <c r="BR17" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BS17" s="2" t="s">
         <v>98</v>
@@ -13029,8 +13471,8 @@
       <c r="BT17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU17" s="2" t="s">
-        <v>98</v>
+      <c r="BU17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV17" s="0" t="s">
         <v>96</v>
@@ -13047,8 +13489,8 @@
       <c r="BZ17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA17" s="2" t="s">
-        <v>98</v>
+      <c r="CA17" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB17" s="0" t="s">
         <v>97</v>
@@ -13062,37 +13504,40 @@
       <c r="CE17" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF17" s="0" t="s">
-        <v>97</v>
+      <c r="CF17" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>2016.03</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>98</v>
+      <c r="I18" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>6.7</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1.8</v>
@@ -13139,14 +13584,14 @@
       <c r="Y18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>98</v>
+      <c r="Z18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>98</v>
@@ -13169,11 +13614,11 @@
       <c r="AI18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="0" t="s">
-        <v>97</v>
+      <c r="AJ18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AL18" s="0" t="s">
         <v>97</v>
@@ -13215,7 +13660,7 @@
         <v>97</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="AZ18" s="0" t="s">
         <v>97</v>
@@ -13229,8 +13674,8 @@
       <c r="BC18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD18" s="0" t="s">
-        <v>102</v>
+      <c r="BD18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BE18" s="0" t="s">
         <v>96</v>
@@ -13238,8 +13683,8 @@
       <c r="BF18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG18" s="0" t="s">
-        <v>97</v>
+      <c r="BG18" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH18" s="2" t="s">
         <v>98</v>
@@ -13248,7 +13693,7 @@
         <v>97</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="BK18" s="2" t="s">
         <v>123</v>
@@ -13262,11 +13707,11 @@
       <c r="BN18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP18" s="2" t="s">
-        <v>98</v>
+      <c r="BO18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BQ18" s="2" t="s">
         <v>98</v>
@@ -13289,8 +13734,8 @@
       <c r="BW18" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX18" s="2" t="s">
-        <v>98</v>
+      <c r="BX18" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BY18" s="2" t="s">
         <v>98</v>
@@ -13313,31 +13758,28 @@
       <c r="CE18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF18" s="2" t="s">
-        <v>98</v>
+      <c r="CF18" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>2017.04</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>90</v>
@@ -13345,8 +13787,8 @@
       <c r="I19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>5.9</v>
+      <c r="J19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1.8</v>
@@ -13366,11 +13808,11 @@
       <c r="P19" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>98</v>
+      <c r="Q19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>97</v>
@@ -13469,7 +13911,7 @@
         <v>97</v>
       </c>
       <c r="AY19" s="0" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AZ19" s="0" t="s">
         <v>97</v>
@@ -13492,8 +13934,8 @@
       <c r="BF19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG19" s="2" t="s">
-        <v>98</v>
+      <c r="BG19" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH19" s="2" t="s">
         <v>98</v>
@@ -13519,8 +13961,8 @@
       <c r="BO19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BP19" s="0" t="s">
-        <v>97</v>
+      <c r="BP19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ19" s="2" t="s">
         <v>98</v>
@@ -13534,8 +13976,8 @@
       <c r="BT19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU19" s="0" t="s">
-        <v>97</v>
+      <c r="BU19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV19" s="0" t="s">
         <v>96</v>
@@ -13543,8 +13985,8 @@
       <c r="BW19" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX19" s="0" t="s">
-        <v>97</v>
+      <c r="BX19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BY19" s="2" t="s">
         <v>98</v>
@@ -13552,8 +13994,8 @@
       <c r="BZ19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA19" s="0" t="s">
-        <v>97</v>
+      <c r="CA19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB19" s="0" t="s">
         <v>97</v>
@@ -13573,22 +14015,25 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>2017.04</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>90</v>
@@ -13596,8 +14041,8 @@
       <c r="I20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>98</v>
+      <c r="J20" s="0" t="n">
+        <v>5.9</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1.8</v>
@@ -13605,17 +14050,23 @@
       <c r="L20" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>130</v>
+      </c>
       <c r="O20" s="0" t="s">
         <v>94</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>97</v>
+      <c r="Q20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>97</v>
@@ -13668,8 +14119,8 @@
       <c r="AI20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ20" s="2" t="s">
-        <v>98</v>
+      <c r="AJ20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AK20" s="0" t="s">
         <v>97</v>
@@ -13714,13 +14165,13 @@
         <v>97</v>
       </c>
       <c r="AY20" s="0" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="AZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA20" s="0" t="s">
-        <v>101</v>
+      <c r="BA20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB20" s="2" t="s">
         <v>98</v>
@@ -13728,8 +14179,8 @@
       <c r="BC20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD20" s="2" t="s">
-        <v>98</v>
+      <c r="BD20" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="BE20" s="0" t="s">
         <v>96</v>
@@ -13737,8 +14188,8 @@
       <c r="BF20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG20" s="0" t="s">
-        <v>97</v>
+      <c r="BG20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH20" s="2" t="s">
         <v>98</v>
@@ -13764,8 +14215,8 @@
       <c r="BO20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BP20" s="2" t="s">
-        <v>98</v>
+      <c r="BP20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BQ20" s="2" t="s">
         <v>98</v>
@@ -13779,8 +14230,8 @@
       <c r="BT20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU20" s="2" t="s">
-        <v>98</v>
+      <c r="BU20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV20" s="0" t="s">
         <v>96</v>
@@ -13788,8 +14239,8 @@
       <c r="BW20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX20" s="2" t="s">
-        <v>98</v>
+      <c r="BX20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BY20" s="2" t="s">
         <v>98</v>
@@ -13797,8 +14248,8 @@
       <c r="BZ20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA20" s="2" t="s">
-        <v>98</v>
+      <c r="CA20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="CB20" s="0" t="s">
         <v>97</v>
@@ -13818,19 +14269,16 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>2017.04</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>176</v>
@@ -13841,11 +14289,11 @@
       <c r="H21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>4.2</v>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>1.8</v>
@@ -13862,8 +14310,8 @@
       <c r="Q21" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>98</v>
+      <c r="R21" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>97</v>
@@ -13962,13 +14410,13 @@
         <v>97</v>
       </c>
       <c r="AY21" s="0" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AZ21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA21" s="2" t="s">
-        <v>98</v>
+      <c r="BA21" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="BB21" s="2" t="s">
         <v>98</v>
@@ -13985,8 +14433,8 @@
       <c r="BF21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BG21" s="2" t="s">
-        <v>98</v>
+      <c r="BG21" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BH21" s="2" t="s">
         <v>98</v>
@@ -14012,8 +14460,8 @@
       <c r="BO21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BP21" s="0" t="s">
-        <v>97</v>
+      <c r="BP21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BQ21" s="2" t="s">
         <v>98</v>
@@ -14027,8 +14475,8 @@
       <c r="BT21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU21" s="0" t="s">
-        <v>97</v>
+      <c r="BU21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BV21" s="0" t="s">
         <v>96</v>
@@ -14036,17 +14484,17 @@
       <c r="BW21" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY21" s="0" t="s">
-        <v>97</v>
+      <c r="BX21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CA21" s="0" t="s">
-        <v>97</v>
+      <c r="CA21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CB21" s="0" t="s">
         <v>97</v>
@@ -14066,47 +14514,41 @@
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2015.1</v>
+        <v>2017.04</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="O22" s="0" t="s">
         <v>94</v>
       </c>
@@ -14152,8 +14594,8 @@
       <c r="AC22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD22" s="0" t="s">
-        <v>99</v>
+      <c r="AD22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AE22" s="0" t="s">
         <v>97</v>
@@ -14179,8 +14621,8 @@
       <c r="AL22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AM22" s="0" t="s">
-        <v>116</v>
+      <c r="AM22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AN22" s="0" t="s">
         <v>97</v>
@@ -14191,8 +14633,8 @@
       <c r="AP22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AQ22" s="0" t="s">
-        <v>97</v>
+      <c r="AQ22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AR22" s="2" t="s">
         <v>98</v>
@@ -14216,13 +14658,13 @@
         <v>97</v>
       </c>
       <c r="AY22" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AZ22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BA22" s="0" t="s">
-        <v>101</v>
+      <c r="BA22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BB22" s="2" t="s">
         <v>98</v>
@@ -14234,10 +14676,10 @@
         <v>98</v>
       </c>
       <c r="BE22" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="BF22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BG22" s="2" t="s">
         <v>98</v>
@@ -14249,7 +14691,7 @@
         <v>97</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="BK22" s="2" t="s">
         <v>123</v>
@@ -14260,11 +14702,11 @@
       <c r="BM22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO22" s="0" t="s">
-        <v>124</v>
+      <c r="BN22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BP22" s="0" t="s">
         <v>97</v>
@@ -14281,8 +14723,8 @@
       <c r="BT22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BU22" s="2" t="s">
-        <v>98</v>
+      <c r="BU22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BV22" s="0" t="s">
         <v>96</v>
@@ -14293,8 +14735,8 @@
       <c r="BX22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY22" s="2" t="s">
-        <v>98</v>
+      <c r="BY22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="BZ22" s="0" t="s">
         <v>97</v>
@@ -14314,52 +14756,52 @@
       <c r="CE22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF22" s="0" t="s">
-        <v>97</v>
+      <c r="CF22" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2017.04</v>
+        <v>2015.1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>98</v>
+      <c r="I23" s="0" t="n">
+        <v>197</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>114</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>94</v>
@@ -14368,133 +14810,133 @@
         <v>95</v>
       </c>
       <c r="Q23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE23" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY23" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA23" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE23" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF23" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG23" s="0" t="s">
-        <v>97</v>
+      <c r="BF23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BH23" s="2" t="s">
         <v>98</v>
@@ -14503,22 +14945,22 @@
         <v>97</v>
       </c>
       <c r="BJ23" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL23" s="0" t="s">
-        <v>139</v>
+        <v>123</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BM23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="BN23" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="BO23" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="BP23" s="0" t="s">
         <v>97</v>
@@ -14542,13 +14984,13 @@
         <v>96</v>
       </c>
       <c r="BW23" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="BY23" s="0" t="s">
-        <v>97</v>
+      <c r="BY23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="BZ23" s="0" t="s">
         <v>97</v>
@@ -14562,13 +15004,267 @@
       <c r="CC23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CD23" s="0" t="s">
-        <v>97</v>
+      <c r="CD23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="CE23" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF23" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2017.04</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN24" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO24" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW24" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF24" s="0" t="s">
         <v>97</v>
       </c>
     </row>
@@ -14588,72 +15284,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF23"/>
+  <dimension ref="A1:CM22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7525773195876"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2577319587629"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.1134020618557"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7835051546392"/>
-    <col collapsed="false" hidden="true" max="8" min="8" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7319587628866"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="true" max="16" min="15" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="true" max="25" min="19" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="true" max="29" min="29" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="true" max="35" min="32" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="true" max="47" min="38" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="true" max="50" min="50" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.3041237113402"/>
-    <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="true" max="55" min="54" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="true" max="58" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="12.2577319587629"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="true" max="61" min="61" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="67" min="66" style="0" width="13.6546391752577"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="13.7938144329897"/>
-    <col collapsed="false" hidden="true" max="69" min="69" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="true" max="72" min="72" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="true" max="78" min="78" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="true" max="81" min="80" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="12.6752577319588"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8505154639175"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.680412371134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="9.44845360824742"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.88144329896907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.639175257732"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.3556701030928"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.1134020618557"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="23" min="22" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="32" min="26" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.9948453608247"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="42" min="39" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="true" max="54" min="45" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="56" min="55" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="true" max="57" min="57" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="true" max="59" min="59" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="20.8144329896907"/>
+    <col collapsed="false" hidden="true" max="62" min="61" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="18.9948453608247"/>
+    <col collapsed="false" hidden="true" max="65" min="64" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="15.0567010309278"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="68" min="68" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="20.8144329896907"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="71" min="71" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="74" min="73" style="0" width="9.8659793814433"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="16.6030927835052"/>
+    <col collapsed="false" hidden="true" max="76" min="76" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="true" max="79" min="79" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="82" min="81" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="18.9948453608247"/>
+    <col collapsed="false" hidden="true" max="85" min="85" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="true" max="88" min="87" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="1025" min="92" style="0" width="11.639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,1269 +15360,1343 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="K3" s="1" t="n">
         <v>2016.04</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="P3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="Q3" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="R3" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="U3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="V3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="X3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BG3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BI3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BL3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BM3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BR3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BS3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BU3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BV3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BP2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CD3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BX2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CF2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>2016.09</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>97</v>
+      <c r="CM3" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>2016.04</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD4" s="3" t="s">
+      <c r="T4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK4" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="BE4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BL4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR4" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT4" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD4" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="BX4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CE4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CM4" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>2017.04</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="X5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AD5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE5" s="0" t="s">
+      <c r="BM5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BF5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL5" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN5" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO5" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC5" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="CD5" s="0" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="CE5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL5" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF5" s="0" t="s">
-        <v>97</v>
+      <c r="CM5" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15931,94 +16704,79 @@
         <v>174</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="P6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="N6" s="0" t="s">
+      <c r="T6" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="Y6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>98</v>
+      <c r="Z6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>98</v>
+      <c r="AF6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>98</v>
@@ -16032,8 +16790,8 @@
       <c r="AJ6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AK6" s="0" t="s">
-        <v>97</v>
+      <c r="AK6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AL6" s="0" t="s">
         <v>97</v>
@@ -16041,8 +16799,8 @@
       <c r="AM6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AN6" s="0" t="s">
-        <v>97</v>
+      <c r="AN6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AO6" s="2" t="s">
         <v>98</v>
@@ -16053,250 +16811,263 @@
       <c r="AQ6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AR6" s="2" t="s">
-        <v>98</v>
+      <c r="AR6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AS6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AT6" s="0" t="s">
-        <v>97</v>
+      <c r="AT6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AU6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AV6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY6" s="0" t="s">
+      <c r="AV6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF6" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="AZ6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA6" s="0" t="s">
+      <c r="BG6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="BB6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE6" s="0" t="s">
+      <c r="BI6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BF6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
+      <c r="BM6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BK6" s="2" t="s">
+      <c r="BR6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM6" s="2" t="s">
+      <c r="BS6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN6" s="2" t="s">
+      <c r="BU6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO6" s="2" t="s">
+      <c r="BV6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BP6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV6" s="0" t="s">
+      <c r="BW6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BW6" s="0" t="s">
+      <c r="CD6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="BX6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE6" s="0" t="s">
+      <c r="CE6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF6" s="2" t="s">
+      <c r="CM6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    <row r="7" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="1" t="n">
+        <v>2016.03</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="P7" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="R7" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="N7" s="0" t="s">
+      <c r="T7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="V7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="W7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="X7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>98</v>
+      <c r="Y7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AK7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL7" s="0" t="s">
+      <c r="AK7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AM7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AN7" s="0" t="s">
-        <v>97</v>
+      <c r="AN7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>98</v>
@@ -16310,650 +17081,702 @@
       <c r="AR7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AS7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY7" s="0" t="s">
+      <c r="AS7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AZ7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE7" s="0" t="s">
+      <c r="BG7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BF7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK7" s="2" t="s">
+      <c r="BM7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BL7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM7" s="2" t="s">
+      <c r="BS7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN7" s="2" t="s">
+      <c r="BU7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BO7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV7" s="0" t="s">
+      <c r="BV7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BW7" s="0" t="s">
+      <c r="CD7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BX7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE7" s="0" t="s">
+      <c r="CE7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CF7" s="2" t="s">
-        <v>98</v>
+      <c r="CM7" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="J8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="K8" s="4" t="n">
         <v>2016.09</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="N8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="O8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="P8" s="4" t="n">
         <v>185</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="Q8" s="4" t="n">
         <v>6.8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="R8" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="S8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="T8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="U8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="V8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="W8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="X8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD8" s="0" t="s">
+      <c r="Y8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY8" s="0" t="s">
+      <c r="AL8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AZ8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA8" s="0" t="s">
+      <c r="BG8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH8" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="BB8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD8" s="0" t="s">
+      <c r="BI8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BE8" s="0" t="s">
+      <c r="BL8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BF8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK8" s="2" t="s">
+      <c r="BM8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR8" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BL8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM8" s="2" t="s">
+      <c r="BS8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="BN8" s="0" t="s">
+      <c r="BU8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BO8" s="0" t="s">
+      <c r="BV8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BP8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR8" s="0" t="s">
+      <c r="BW8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BS8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV8" s="0" t="s">
+      <c r="BZ8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BW8" s="0" t="s">
+      <c r="CD8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BX8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD8" s="0" t="s">
+      <c r="CE8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="CE8" s="0" t="s">
+      <c r="CL8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="CF8" s="0" t="s">
+      <c r="CM8" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="9" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>2016.03</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="n">
+        <v>2016.04</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>186</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="W9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="X9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
         <v>98</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP9" s="5" t="s">
         <v>98</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK9" s="4" t="s">
+      <c r="BM9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BL9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM9" s="4" t="s">
+      <c r="BS9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BN9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO9" s="3" t="s">
+      <c r="BU9" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BP9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ9" s="3" t="s">
-        <v>97</v>
+      <c r="BV9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ9" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="CA9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB9" s="3" t="s">
-        <v>97</v>
+        <v>97</v>
+      </c>
+      <c r="CB9" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="CC9" s="4" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="CD9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CF9" s="3" t="s">
+      <c r="CM9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>222</v>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>222</v>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF7"/>
+  <autoFilter ref="A1:CM9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16972,8 +17795,8 @@
   </sheetPr>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16984,217 +17807,217 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>223</v>
+      <c r="A7" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>217</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -24,11 +24,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -2606,7 +2608,7 @@
     <t>排名（配置）</t>
   </si>
   <si>
-    <t>C-CNCAP</t>
+    <t>C-NCAP</t>
   </si>
   <si>
     <t>油耗</t>
@@ -15287,7 +15289,7 @@
   <dimension ref="A1:CM22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15918,10 +15920,18 @@
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>38.78</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
@@ -16185,7 +16195,9 @@
       <c r="D4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0"/>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -16448,6 +16460,18 @@
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>42.37</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>206</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Backup" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="qq" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
@@ -25,19 +26,23 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="379">
   <si>
     <t>车型</t>
   </si>
@@ -2707,6 +2712,369 @@
       </rPr>
       <t>高能版</t>
     </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>MarketTime</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Gearbox</t>
+  </si>
+  <si>
+    <t>LWH</t>
+  </si>
+  <si>
+    <t>BodyStructure</t>
+  </si>
+  <si>
+    <t>MaximunSpeed</t>
+  </si>
+  <si>
+    <t>FuelConsumption</t>
+  </si>
+  <si>
+    <t>EngineCapacity</t>
+  </si>
+  <si>
+    <t>EngineForm</t>
+  </si>
+  <si>
+    <t>GearboxType</t>
+  </si>
+  <si>
+    <t>ParkingBrakeType</t>
+  </si>
+  <si>
+    <t>PSAirbag</t>
+  </si>
+  <si>
+    <t>BASideAirbag</t>
+  </si>
+  <si>
+    <t>BAHeadAirbag</t>
+  </si>
+  <si>
+    <t>TirePressure</t>
+  </si>
+  <si>
+    <t>SeatBeltWarning</t>
+  </si>
+  <si>
+    <t>ChildSeat</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>EBD</t>
+  </si>
+  <si>
+    <t>EBA</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>MergeSupport</t>
+  </si>
+  <si>
+    <t>DeviationWarning</t>
+  </si>
+  <si>
+    <t>SecuritySystem</t>
+  </si>
+  <si>
+    <t>NightVersion</t>
+  </si>
+  <si>
+    <t>ParkingRadar</t>
+  </si>
+  <si>
+    <t>ParkingVideo</t>
+  </si>
+  <si>
+    <t>PanoramicCamera</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>AdaptiveCruise</t>
+  </si>
+  <si>
+    <t>AutomaticParking</t>
+  </si>
+  <si>
+    <t>EngineAutomatic</t>
+  </si>
+  <si>
+    <t>UphillSupport</t>
+  </si>
+  <si>
+    <t>AutomaticSkylight</t>
+  </si>
+  <si>
+    <t>PanoramicSkylight</t>
+  </si>
+  <si>
+    <t>Rims</t>
+  </si>
+  <si>
+    <t>AutomaticDoor</t>
+  </si>
+  <si>
+    <t>AutomaticTrunk</t>
+  </si>
+  <si>
+    <t>InduceTrunk</t>
+  </si>
+  <si>
+    <t>RoofRacks</t>
+  </si>
+  <si>
+    <t>EngineAntiTheft</t>
+  </si>
+  <si>
+    <t>ParkingLock</t>
+  </si>
+  <si>
+    <t>RemoteKey</t>
+  </si>
+  <si>
+    <t>KeylessStart</t>
+  </si>
+  <si>
+    <t>KeylessEntry</t>
+  </si>
+  <si>
+    <t>SteeringWheel</t>
+  </si>
+  <si>
+    <t>SeatMaterial</t>
+  </si>
+  <si>
+    <t>SeatAdjust</t>
+  </si>
+  <si>
+    <t>PSSeatAdjust</t>
+  </si>
+  <si>
+    <t>AfterSeatAdjust</t>
+  </si>
+  <si>
+    <t>SeatMemory</t>
+  </si>
+  <si>
+    <t>SeatFallDown</t>
+  </si>
+  <si>
+    <t>CentralArmrest</t>
+  </si>
+  <si>
+    <t>CupHolder</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>ScreenSize</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>LowLights</t>
+  </si>
+  <si>
+    <t>HighLights</t>
+  </si>
+  <si>
+    <t>AdaptiveLights</t>
+  </si>
+  <si>
+    <t>HeadLights</t>
+  </si>
+  <si>
+    <t>SupportLights</t>
+  </si>
+  <si>
+    <t>FogLights</t>
+  </si>
+  <si>
+    <t>AtmosphereLights</t>
+  </si>
+  <si>
+    <t>AutomaticWindow</t>
+  </si>
+  <si>
+    <t>WindowLift</t>
+  </si>
+  <si>
+    <t>WindowAntiClipHand</t>
+  </si>
+  <si>
+    <t>InsulatedGlass</t>
+  </si>
+  <si>
+    <t>AutomaticRearviewAdjust</t>
+  </si>
+  <si>
+    <t>AutomaticRearviewFold</t>
+  </si>
+  <si>
+    <t>MakeupMirror</t>
+  </si>
+  <si>
+    <t>Wipers</t>
+  </si>
+  <si>
+    <t>InduceWipers</t>
+  </si>
+  <si>
+    <t>AirConditioning</t>
+  </si>
+  <si>
+    <t>WindOutlet</t>
+  </si>
+  <si>
+    <t>凌派 2017款 1.8L CVT豪华特装版</t>
+  </si>
+  <si>
+    <t>1.8L 136马力 L4</t>
+  </si>
+  <si>
+    <t>CVT无级变速</t>
+  </si>
+  <si>
+    <t>无级变速箱(CVT)</t>
+  </si>
+  <si>
+    <t>前- / 后●</t>
+  </si>
+  <si>
+    <t>7英寸</t>
+  </si>
+  <si>
+    <t>4-5喇叭</t>
+  </si>
+  <si>
+    <t>卡罗拉 2017款 改款双擎 1.8L CVT豪华版</t>
+  </si>
+  <si>
+    <t>1.8L 99马力 L4</t>
+  </si>
+  <si>
+    <t>E-CVT无级变速</t>
+  </si>
+  <si>
+    <t>扭力梁式非独立悬架</t>
+  </si>
+  <si>
+    <t>8英寸</t>
+  </si>
+  <si>
+    <t>6-7喇叭</t>
+  </si>
+  <si>
+    <t>威朗 2017款 三厢 15S 自动进取型</t>
+  </si>
+  <si>
+    <t>1.5L 118马力 L4</t>
+  </si>
+  <si>
+    <t>6挡手自一体</t>
+  </si>
+  <si>
+    <t>4718*1802*1466</t>
+  </si>
+  <si>
+    <t>手自一体变速箱(AT)</t>
+  </si>
+  <si>
+    <t>卤素(选装LED)</t>
+  </si>
+  <si>
+    <t>威朗 2017款 三厢 15S 自动领先型</t>
+  </si>
+  <si>
+    <t>朗逸 2017款 1.6L 自动舒适版</t>
+  </si>
+  <si>
+    <t>上汽大众</t>
+  </si>
+  <si>
+    <t>1.6L 110马力 L4</t>
+  </si>
+  <si>
+    <t>4605*1765*1460</t>
+  </si>
+  <si>
+    <t>单碟CD</t>
+  </si>
+  <si>
+    <t>英朗 2017款 15N 自动精英型</t>
+  </si>
+  <si>
+    <t>1.5L 114马力 L4</t>
+  </si>
+  <si>
+    <t>4587*1798*1463</t>
+  </si>
+  <si>
+    <t>皮/织物混搭</t>
+  </si>
+  <si>
+    <t>英朗 2017款 15N 自动豪华型</t>
+  </si>
+  <si>
+    <t>USB+SD卡插槽</t>
+  </si>
+  <si>
+    <t>英朗 2017款 15N 自动进取型</t>
+  </si>
+  <si>
+    <t>速腾 2017款 1.6L 自动时尚型</t>
+  </si>
+  <si>
+    <t>前- / 后○</t>
+  </si>
+  <si>
+    <t>速腾 2017款 1.6L 自动舒适型</t>
+  </si>
+  <si>
+    <t>主○ / 副-</t>
+  </si>
+  <si>
+    <t>雷凌 2017款 改款双擎 1.8H V CVT豪华版</t>
+  </si>
+  <si>
+    <t>1.8L 99马力 </t>
+  </si>
+  <si>
+    <t>仿皮+真皮</t>
   </si>
 </sst>
 </file>
@@ -2829,11 +3197,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15288,8 +15656,8 @@
   </sheetPr>
   <dimension ref="A1:CM22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16723,1061 +17091,1061 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="0" t="n">
+      <c r="P6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="X6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF6" s="0" t="s">
+      <c r="Y6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="BG6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH6" s="0" t="s">
+      <c r="BG6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BI6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL6" s="0" t="s">
+      <c r="BI6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BM6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
+      <c r="BM6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BR6" s="2" t="s">
+      <c r="BR6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BS6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT6" s="2" t="s">
+      <c r="BS6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BU6" s="2" t="s">
+      <c r="BU6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BV6" s="2" t="s">
+      <c r="BV6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BW6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC6" s="0" t="s">
+      <c r="BW6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CD6" s="0" t="s">
+      <c r="CD6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="CE6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL6" s="0" t="s">
+      <c r="CE6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CM6" s="2" t="s">
+      <c r="CM6" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="5" t="n">
         <v>2016.03</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="5" t="n">
         <v>6.7</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF7" s="1" t="s">
+      <c r="Y7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BG7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL7" s="1" t="s">
+      <c r="BG7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BM7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
+      <c r="BM7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BR7" s="2" t="s">
+      <c r="BR7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BS7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT7" s="2" t="s">
+      <c r="BS7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="BU7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BV7" s="1" t="s">
+      <c r="BV7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BW7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC7" s="1" t="s">
+      <c r="BW7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CD7" s="1" t="s">
+      <c r="CD7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CE7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL7" s="1" t="s">
+      <c r="CE7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="CM7" s="1" t="s">
+      <c r="CM7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>2016.09</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="5" t="n">
         <v>6.8</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK8" s="4" t="s">
+      <c r="Y8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BG8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BG8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BI8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK8" s="4" t="s">
+      <c r="BI8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BL8" s="4" t="s">
+      <c r="BL8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BM8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR8" s="5" t="s">
+      <c r="BM8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="BS8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT8" s="5" t="s">
+      <c r="BS8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BU8" s="4" t="s">
+      <c r="BU8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BV8" s="4" t="s">
+      <c r="BV8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BW8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY8" s="4" t="s">
+      <c r="BW8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BZ8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC8" s="4" t="s">
+      <c r="BZ8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CD8" s="4" t="s">
+      <c r="CD8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CE8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK8" s="4" t="s">
+      <c r="CE8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="CL8" s="4" t="s">
+      <c r="CL8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="CM8" s="4" t="s">
+      <c r="CM8" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>2016.04</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="5" t="n">
         <v>5.9</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK9" s="4" t="s">
+      <c r="Y9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BG9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK9" s="4" t="s">
+      <c r="BG9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BL9" s="4" t="s">
+      <c r="BL9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BM9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ9" s="5" t="s">
+      <c r="BM9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BR9" s="5" t="s">
+      <c r="BR9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BS9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT9" s="5" t="s">
+      <c r="BS9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BU9" s="4" t="s">
+      <c r="BU9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BV9" s="4" t="s">
+      <c r="BV9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BW9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BX9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC9" s="4" t="s">
+      <c r="BW9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC9" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="CD9" s="4" t="s">
+      <c r="CD9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CE9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL9" s="4" t="s">
+      <c r="CE9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="CM9" s="4" t="s">
+      <c r="CM9" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -18054,4 +18422,3159 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CF12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6443298969072"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88144329896907"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.5567010309278"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3762886597938"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.639175257732"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.319587628866"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0773195876289"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5463917525773"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4484536082474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0103092783505"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.03092783505155"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.9742268041237"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9226804123711"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.29896907216495"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.80927835051546"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.95360824742268"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="4.80927835051546"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.67525773195876"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3762886597938"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.0463917525773"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.3917525773196"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="16.7474226804124"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="6.78350515463918"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="16.1855670103093"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.6185567010309"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="13.0927835051546"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.1855670103093"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.6030927835052"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.65463917525773"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.2216494845361"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.639175257732"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.9742268041237"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.1494845360825"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="14.639175257732"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.4123711340206"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="10.9948453608247"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="11.4123711340206"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="11.8298969072165"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="13.3762886597938"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.4484536082474"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.2938144329897"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.3917525773196"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="14.2216494845361"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="11.9742268041237"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="10.5670103092784"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="4.95360824742268"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.8453608247423"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="7.20103092783505"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.3917525773196"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="8.18556701030928"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="10.1494845360825"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="4.67525773195876"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="10.7113402061856"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="13.0927835051546"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="9.29896907216495"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="16.6030927835052"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="16.7474226804124"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="10.7113402061856"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="19.1288659793814"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="22.639175257732"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="20.9587628865979"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="13.3762886597938"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="7.20103092783505"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="12.9587628865979"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="14.5"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.8453608247423"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="11.639175257732"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2017.06</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE2" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF2" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2017.04</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF3" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="BO4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE4" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF4" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ5" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="BO5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE5" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF5" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2017.02</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM6" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW6" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF6" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2016.12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE7" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM7" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV7" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF7" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2016.12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ8" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK8" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV8" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF8" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2016.12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE9" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM9" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE9" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF9" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE10" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK10" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL10" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM10" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV10" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF10" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA11" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="BB11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK11" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM11" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE11" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF11" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY12" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA12" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE12" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ12" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM12" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV12" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF12" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -12,9 +12,10 @@
     <sheet name="Backup" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="qq" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Final" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Final!$A$1:$CF$17</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
@@ -28,21 +29,27 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="300">
   <si>
     <t>车型</t>
   </si>
@@ -2714,256 +2721,58 @@
     </r>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>MarketTime</t>
-  </si>
-  <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>Gearbox</t>
-  </si>
-  <si>
-    <t>LWH</t>
-  </si>
-  <si>
-    <t>BodyStructure</t>
-  </si>
-  <si>
-    <t>MaximunSpeed</t>
-  </si>
-  <si>
-    <t>FuelConsumption</t>
-  </si>
-  <si>
-    <t>EngineCapacity</t>
-  </si>
-  <si>
-    <t>EngineForm</t>
-  </si>
-  <si>
-    <t>GearboxType</t>
-  </si>
-  <si>
-    <t>ParkingBrakeType</t>
-  </si>
-  <si>
-    <t>PSAirbag</t>
-  </si>
-  <si>
-    <t>BASideAirbag</t>
-  </si>
-  <si>
-    <t>BAHeadAirbag</t>
-  </si>
-  <si>
-    <t>TirePressure</t>
-  </si>
-  <si>
-    <t>SeatBeltWarning</t>
-  </si>
-  <si>
-    <t>ChildSeat</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>EBD</t>
-  </si>
-  <si>
-    <t>EBA</t>
-  </si>
-  <si>
-    <t>ASR</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>MergeSupport</t>
-  </si>
-  <si>
-    <t>DeviationWarning</t>
-  </si>
-  <si>
-    <t>SecuritySystem</t>
-  </si>
-  <si>
-    <t>NightVersion</t>
-  </si>
-  <si>
-    <t>ParkingRadar</t>
-  </si>
-  <si>
-    <t>ParkingVideo</t>
-  </si>
-  <si>
-    <t>PanoramicCamera</t>
-  </si>
-  <si>
-    <t>Cruise</t>
-  </si>
-  <si>
-    <t>AdaptiveCruise</t>
-  </si>
-  <si>
-    <t>AutomaticParking</t>
-  </si>
-  <si>
-    <t>EngineAutomatic</t>
-  </si>
-  <si>
-    <t>UphillSupport</t>
-  </si>
-  <si>
-    <t>AutomaticSkylight</t>
-  </si>
-  <si>
-    <t>PanoramicSkylight</t>
-  </si>
-  <si>
-    <t>Rims</t>
-  </si>
-  <si>
-    <t>AutomaticDoor</t>
-  </si>
-  <si>
-    <t>AutomaticTrunk</t>
-  </si>
-  <si>
-    <t>InduceTrunk</t>
-  </si>
-  <si>
-    <t>RoofRacks</t>
-  </si>
-  <si>
-    <t>EngineAntiTheft</t>
-  </si>
-  <si>
-    <t>ParkingLock</t>
-  </si>
-  <si>
-    <t>RemoteKey</t>
-  </si>
-  <si>
-    <t>KeylessStart</t>
-  </si>
-  <si>
-    <t>KeylessEntry</t>
-  </si>
-  <si>
-    <t>SteeringWheel</t>
-  </si>
-  <si>
-    <t>SeatMaterial</t>
-  </si>
-  <si>
-    <t>SeatAdjust</t>
-  </si>
-  <si>
-    <t>PSSeatAdjust</t>
-  </si>
-  <si>
-    <t>AfterSeatAdjust</t>
-  </si>
-  <si>
-    <t>SeatMemory</t>
-  </si>
-  <si>
-    <t>SeatFallDown</t>
-  </si>
-  <si>
-    <t>CentralArmrest</t>
-  </si>
-  <si>
-    <t>CupHolder</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Positioning</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>ScreenSize</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>LowLights</t>
-  </si>
-  <si>
-    <t>HighLights</t>
-  </si>
-  <si>
-    <t>AdaptiveLights</t>
-  </si>
-  <si>
-    <t>HeadLights</t>
-  </si>
-  <si>
-    <t>SupportLights</t>
-  </si>
-  <si>
-    <t>FogLights</t>
-  </si>
-  <si>
-    <t>AtmosphereLights</t>
-  </si>
-  <si>
-    <t>AutomaticWindow</t>
-  </si>
-  <si>
-    <t>WindowLift</t>
-  </si>
-  <si>
-    <t>WindowAntiClipHand</t>
-  </si>
-  <si>
-    <t>InsulatedGlass</t>
-  </si>
-  <si>
-    <t>AutomaticRearviewAdjust</t>
-  </si>
-  <si>
-    <t>AutomaticRearviewFold</t>
-  </si>
-  <si>
-    <t>MakeupMirror</t>
-  </si>
-  <si>
-    <t>Wipers</t>
-  </si>
-  <si>
-    <t>InduceWipers</t>
-  </si>
-  <si>
-    <t>AirConditioning</t>
-  </si>
-  <si>
-    <t>WindOutlet</t>
-  </si>
-  <si>
-    <t>凌派 2017款 1.8L CVT豪华特装版</t>
-  </si>
-  <si>
-    <t>1.8L 136马力 L4</t>
+    <t>卡罗拉 2017款 改款双擎 1.8L CVT精英版</t>
+  </si>
+  <si>
+    <t>1.8L 99马力 L4</t>
+  </si>
+  <si>
+    <t>E-CVT无级变速</t>
+  </si>
+  <si>
+    <t>单碟CD</t>
+  </si>
+  <si>
+    <t>6-7喇叭</t>
+  </si>
+  <si>
+    <t>卡罗拉 2017款 改款双擎 1.8L CVT豪华版</t>
+  </si>
+  <si>
+    <t>8英寸</t>
+  </si>
+  <si>
+    <t>威朗 2017款 三厢 15S 自动领先型</t>
+  </si>
+  <si>
+    <t>1.5L 118马力 L4</t>
+  </si>
+  <si>
+    <t>6挡手自一体</t>
+  </si>
+  <si>
+    <t>4718*1802*1466</t>
+  </si>
+  <si>
+    <t>手自一体变速箱(AT)</t>
+  </si>
+  <si>
+    <t>前- / 后●</t>
+  </si>
+  <si>
+    <t>卤素(选装LED)</t>
+  </si>
+  <si>
+    <t>威朗 2017款 三厢 20T 双离合精英型</t>
+  </si>
+  <si>
+    <t>1.5T 169马力 L4</t>
+  </si>
+  <si>
+    <t>思域 2016款 220TURBO 自动尊贵版</t>
+  </si>
+  <si>
+    <t>1.5T 177马力 L4</t>
   </si>
   <si>
     <t>CVT无级变速</t>
@@ -2972,109 +2781,70 @@
     <t>无级变速箱(CVT)</t>
   </si>
   <si>
-    <t>前- / 后●</t>
-  </si>
-  <si>
     <t>7英寸</t>
   </si>
   <si>
+    <t>思域 2016款 220TURBO 自动豪华版</t>
+  </si>
+  <si>
+    <t>朗逸 2017款 230TSI DSG舒适版</t>
+  </si>
+  <si>
+    <t>上汽大众</t>
+  </si>
+  <si>
+    <t>4605*1765*1460</t>
+  </si>
+  <si>
+    <t>朗逸 2017款 230TSI DSG豪华版</t>
+  </si>
+  <si>
+    <t>卤素(选装氙气)</t>
+  </si>
+  <si>
+    <t>标致308 2016款 350THP 自动尊贵版</t>
+  </si>
+  <si>
+    <t>1.6T 167马力 L4</t>
+  </si>
+  <si>
+    <t>皮/织物混搭</t>
+  </si>
+  <si>
+    <t>9.7英寸</t>
+  </si>
+  <si>
+    <t>标致408 2016款 1.6T 自动豪华版</t>
+  </si>
+  <si>
+    <t>轩逸 2016款 1.6XV CVT智尊版</t>
+  </si>
+  <si>
+    <t>1.6L 126马力 L4</t>
+  </si>
+  <si>
     <t>4-5喇叭</t>
   </si>
   <si>
-    <t>卡罗拉 2017款 改款双擎 1.8L CVT豪华版</t>
-  </si>
-  <si>
-    <t>1.8L 99马力 L4</t>
-  </si>
-  <si>
-    <t>E-CVT无级变速</t>
-  </si>
-  <si>
-    <t>扭力梁式非独立悬架</t>
-  </si>
-  <si>
-    <t>8英寸</t>
-  </si>
-  <si>
-    <t>6-7喇叭</t>
-  </si>
-  <si>
-    <t>威朗 2017款 三厢 15S 自动进取型</t>
-  </si>
-  <si>
-    <t>1.5L 118马力 L4</t>
-  </si>
-  <si>
-    <t>6挡手自一体</t>
-  </si>
-  <si>
-    <t>4718*1802*1466</t>
-  </si>
-  <si>
-    <t>手自一体变速箱(AT)</t>
-  </si>
-  <si>
-    <t>卤素(选装LED)</t>
-  </si>
-  <si>
-    <t>威朗 2017款 三厢 15S 自动领先型</t>
-  </si>
-  <si>
-    <t>朗逸 2017款 1.6L 自动舒适版</t>
-  </si>
-  <si>
-    <t>上汽大众</t>
-  </si>
-  <si>
-    <t>1.6L 110马力 L4</t>
-  </si>
-  <si>
-    <t>4605*1765*1460</t>
-  </si>
-  <si>
-    <t>单碟CD</t>
-  </si>
-  <si>
-    <t>英朗 2017款 15N 自动精英型</t>
-  </si>
-  <si>
-    <t>1.5L 114马力 L4</t>
-  </si>
-  <si>
-    <t>4587*1798*1463</t>
-  </si>
-  <si>
-    <t>皮/织物混搭</t>
-  </si>
-  <si>
-    <t>英朗 2017款 15N 自动豪华型</t>
-  </si>
-  <si>
-    <t>USB+SD卡插槽</t>
-  </si>
-  <si>
-    <t>英朗 2017款 15N 自动进取型</t>
-  </si>
-  <si>
-    <t>速腾 2017款 1.6L 自动时尚型</t>
-  </si>
-  <si>
-    <t>前- / 后○</t>
-  </si>
-  <si>
-    <t>速腾 2017款 1.6L 自动舒适型</t>
-  </si>
-  <si>
-    <t>主○ / 副-</t>
+    <t>轩逸 2016款 1.8XV CVT智尊版</t>
+  </si>
+  <si>
+    <t>1.8L 139马力 L4</t>
+  </si>
+  <si>
+    <t>速腾 2017款 230TSI 自动舒适型</t>
+  </si>
+  <si>
+    <t>雷凌 2017款 改款双擎 1.8H GS-L CVT领先版</t>
+  </si>
+  <si>
+    <t>1.8L 99马力 </t>
+  </si>
+  <si>
+    <t>仿皮+真皮</t>
   </si>
   <si>
     <t>雷凌 2017款 改款双擎 1.8H V CVT豪华版</t>
-  </si>
-  <si>
-    <t>1.8L 99马力 </t>
-  </si>
-  <si>
-    <t>仿皮+真皮</t>
   </si>
 </sst>
 </file>
@@ -3301,6 +3071,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -15654,10 +15428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CM22"/>
+  <dimension ref="A1:CM21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18149,21 +17923,26 @@
         <v>97</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="0" t="s">
+      <c r="A12" s="0" t="s">
         <v>256</v>
       </c>
+      <c r="I12" s="0" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
         <v>256</v>
       </c>
     </row>
@@ -18429,381 +18208,365 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF12"/>
+  <dimension ref="A1:CF17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6443298969072"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88144329896907"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.5567010309278"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.340206185567"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3762886597938"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.639175257732"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.319587628866"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0773195876289"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5463917525773"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4484536082474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.03092783505155"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.3350515463918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.29896907216495"/>
+    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1288659793814"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="14.7835051546392"/>
+    <col collapsed="false" hidden="true" max="8" min="8" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2216494845361"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7680412371134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3556701030928"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4123711340206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3917525773196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.4639175257732"/>
+    <col collapsed="false" hidden="true" max="15" min="15" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9587628865979"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.520618556701"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.9742268041237"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9226804123711"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.29896907216495"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.80927835051546"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.95360824742268"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="4.80927835051546"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.67525773195876"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3762886597938"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.0463917525773"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="13.9381443298969"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.6752577319588"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.3917525773196"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="16.7474226804124"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="6.78350515463918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8298969072165"/>
+    <col collapsed="false" hidden="true" max="25" min="19" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.9587628865979"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6185567010309"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.639175257732"/>
+    <col collapsed="false" hidden="true" max="29" min="29" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.2577319587629"/>
+    <col collapsed="false" hidden="true" max="33" min="32" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.9381443298969"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.6185567010309"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.6030927835052"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.65463917525773"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.2216494845361"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.639175257732"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.9742268041237"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.1494845360825"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="14.639175257732"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="11.4123711340206"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="10.9948453608247"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="11.4123711340206"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="11.8298969072165"/>
+    <col collapsed="false" hidden="true" max="35" min="35" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.4845360824742"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.3917525773196"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.4639175257732"/>
+    <col collapsed="false" hidden="true" max="47" min="39" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="13.3762886597938"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.4484536082474"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.2938144329897"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.3917525773196"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="14.2216494845361"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="11.9742268041237"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="12.6752577319588"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="13.9381443298969"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="10.5670103092784"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="4.95360824742268"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.8453608247423"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="7.20103092783505"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="13.6546391752577"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.3917525773196"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="8.18556701030928"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="11.8298969072165"/>
+    <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.0927835051546"/>
+    <col collapsed="false" hidden="true" max="55" min="54" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="12.8092783505155"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="13.7938144329897"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="10.0103092783505"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="5.52061855670103"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.5670103092784"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="7.33505154639175"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="10.9948453608247"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="8.31958762886598"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="9.72680412371134"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="10.1494845360825"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="4.67525773195876"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="5.09278350515464"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="13.6546391752577"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="9.29896907216495"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="16.6030927835052"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="16.7474226804124"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="10.7113402061856"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="19.1288659793814"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="13.6546391752577"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="22.639175257732"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="20.9587628865979"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="13.3762886597938"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="7.20103092783505"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="12.9587628865979"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.8453608247423"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="12.8092783505155"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="9.58247422680412"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="16.319587628866"/>
+    <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="10.4278350515464"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="18.4278350515464"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="13.7938144329897"/>
+    <col collapsed="false" hidden="true" max="78" min="78" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="20.8144329896907"/>
+    <col collapsed="false" hidden="true" max="81" min="80" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="12.6752577319588"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.7938144329897"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.5670103092784"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="11.639175257732"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU1" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="BN1" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="BO1" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="BP1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="BQ1" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="BR1" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="BS1" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="BT1" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="BU1" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="BV1" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="BW1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="BX1" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="BY1" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="BZ1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="CA1" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="CB1" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="CC1" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="CD1" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="CE1" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="CF1" s="0" t="s">
-        <v>339</v>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2017.06</v>
+        <v>2017.04</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>98</v>
+      <c r="I2" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>4.2</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1.8</v>
@@ -18811,12 +18574,6 @@
       <c r="L2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="O2" s="0" t="s">
         <v>227</v>
       </c>
@@ -18824,10 +18581,10 @@
         <v>228</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>97</v>
@@ -18863,7 +18620,7 @@
         <v>98</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>98</v>
@@ -18920,13 +18677,13 @@
         <v>97</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="0" t="s">
         <v>97</v>
@@ -18941,7 +18698,7 @@
         <v>98</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BE2" s="0" t="s">
         <v>230</v>
@@ -18956,25 +18713,25 @@
         <v>98</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="BK2" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="BM2" s="0" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="BN2" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BO2" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BP2" s="0" t="s">
         <v>98</v>
@@ -18983,7 +18740,7 @@
         <v>98</v>
       </c>
       <c r="BR2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS2" s="0" t="s">
         <v>98</v>
@@ -18992,7 +18749,7 @@
         <v>97</v>
       </c>
       <c r="BU2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV2" s="0" t="s">
         <v>230</v>
@@ -19004,7 +18761,7 @@
         <v>97</v>
       </c>
       <c r="BY2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ2" s="0" t="s">
         <v>97</v>
@@ -19022,7 +18779,7 @@
         <v>98</v>
       </c>
       <c r="CE2" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF2" s="0" t="s">
         <v>98</v>
@@ -19030,7 +18787,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>206</v>
@@ -19042,10 +18799,10 @@
         <v>2017.04</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>177</v>
@@ -19065,12 +18822,6 @@
       <c r="L3" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="O3" s="0" t="s">
         <v>227</v>
       </c>
@@ -19213,7 +18964,7 @@
         <v>97</v>
       </c>
       <c r="BJ3" s="0" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="BK3" s="0" t="s">
         <v>123</v>
@@ -19222,7 +18973,7 @@
         <v>98</v>
       </c>
       <c r="BM3" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>106</v>
@@ -19284,7 +19035,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>186</v>
@@ -19296,13 +19047,13 @@
         <v>2016.09</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>225</v>
@@ -19320,7 +19071,7 @@
         <v>129</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>93</v>
@@ -19371,7 +19122,7 @@
         <v>98</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>98</v>
@@ -19434,13 +19185,13 @@
         <v>98</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="AZ4" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB4" s="0" t="s">
         <v>98</v>
@@ -19449,7 +19200,7 @@
         <v>98</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="BE4" s="0" t="s">
         <v>228</v>
@@ -19464,22 +19215,22 @@
         <v>98</v>
       </c>
       <c r="BI4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ4" s="0" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BL4" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM4" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN4" s="0" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="BO4" s="0" t="s">
         <v>124</v>
@@ -19491,7 +19242,7 @@
         <v>98</v>
       </c>
       <c r="BR4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS4" s="0" t="s">
         <v>98</v>
@@ -19538,7 +19289,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>186</v>
@@ -19550,31 +19301,31 @@
         <v>2016.09</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>93</v>
@@ -19625,10 +19376,10 @@
         <v>98</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF5" s="0" t="s">
         <v>98</v>
@@ -19694,7 +19445,7 @@
         <v>97</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="BB5" s="0" t="s">
         <v>98</v>
@@ -19706,10 +19457,10 @@
         <v>102</v>
       </c>
       <c r="BE5" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG5" s="0" t="s">
         <v>98</v>
@@ -19721,7 +19472,7 @@
         <v>97</v>
       </c>
       <c r="BJ5" s="0" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="BK5" s="0" t="s">
         <v>123</v>
@@ -19730,10 +19481,10 @@
         <v>98</v>
       </c>
       <c r="BM5" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN5" s="0" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="BO5" s="0" t="s">
         <v>124</v>
@@ -19784,7 +19535,7 @@
         <v>98</v>
       </c>
       <c r="CE5" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF5" s="0" t="s">
         <v>97</v>
@@ -19792,46 +19543,46 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2017.02</v>
+        <v>2016.04</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>183</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>98</v>
+        <v>200</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>5.7</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>227</v>
@@ -19840,7 +19591,7 @@
         <v>228</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>97</v>
@@ -19879,10 +19630,10 @@
         <v>98</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="0" t="s">
         <v>98</v>
@@ -19897,7 +19648,7 @@
         <v>98</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK6" s="0" t="s">
         <v>97</v>
@@ -19936,7 +19687,7 @@
         <v>97</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX6" s="0" t="s">
         <v>97</v>
@@ -19948,7 +19699,7 @@
         <v>97</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB6" s="0" t="s">
         <v>98</v>
@@ -19966,43 +19717,43 @@
         <v>97</v>
       </c>
       <c r="BG6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ6" s="0" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="BM6" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN6" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BO6" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BP6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ6" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BT6" s="0" t="s">
         <v>97</v>
@@ -20014,7 +19765,7 @@
         <v>230</v>
       </c>
       <c r="BW6" s="0" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="BX6" s="0" t="s">
         <v>97</v>
@@ -20038,7 +19789,7 @@
         <v>98</v>
       </c>
       <c r="CE6" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF6" s="0" t="s">
         <v>98</v>
@@ -20046,46 +19797,46 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2016.12</v>
+        <v>2016.04</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>366</v>
+        <v>275</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>227</v>
@@ -20094,7 +19845,7 @@
         <v>228</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>97</v>
@@ -20133,10 +19884,10 @@
         <v>98</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF7" s="0" t="s">
         <v>98</v>
@@ -20187,16 +19938,16 @@
         <v>97</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX7" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="AZ7" s="0" t="s">
         <v>97</v>
@@ -20214,31 +19965,31 @@
         <v>102</v>
       </c>
       <c r="BE7" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG7" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BI7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ7" s="0" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="BL7" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM7" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN7" s="0" t="s">
         <v>124</v>
@@ -20259,7 +20010,7 @@
         <v>98</v>
       </c>
       <c r="BT7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU7" s="0" t="s">
         <v>98</v>
@@ -20268,13 +20019,13 @@
         <v>230</v>
       </c>
       <c r="BW7" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="BX7" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ7" s="0" t="s">
         <v>97</v>
@@ -20292,51 +20043,51 @@
         <v>98</v>
       </c>
       <c r="CE7" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF7" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2016.12</v>
+        <v>2017.02</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>5.9</v>
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>130</v>
@@ -20387,7 +20138,7 @@
         <v>98</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="AE8" s="0" t="s">
         <v>98</v>
@@ -20447,7 +20198,7 @@
         <v>98</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY8" s="0" t="s">
         <v>100</v>
@@ -20468,40 +20219,40 @@
         <v>102</v>
       </c>
       <c r="BE8" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG8" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="BH8" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BI8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ8" s="0" t="s">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="BM8" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN8" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="BO8" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="BP8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BQ8" s="0" t="s">
         <v>98</v>
@@ -20510,10 +20261,10 @@
         <v>98</v>
       </c>
       <c r="BS8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU8" s="0" t="s">
         <v>98</v>
@@ -20522,13 +20273,13 @@
         <v>230</v>
       </c>
       <c r="BW8" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX8" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ8" s="0" t="s">
         <v>97</v>
@@ -20549,48 +20300,48 @@
         <v>108</v>
       </c>
       <c r="CF8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2016.12</v>
+        <v>2017.02</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>5.9</v>
+        <v>200</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>130</v>
@@ -20599,10 +20350,10 @@
         <v>227</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>97</v>
@@ -20641,7 +20392,7 @@
         <v>98</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="AE9" s="0" t="s">
         <v>98</v>
@@ -20665,7 +20416,7 @@
         <v>97</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM9" s="0" t="s">
         <v>98</v>
@@ -20695,22 +20446,22 @@
         <v>97</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="AZ9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB9" s="0" t="s">
         <v>98</v>
@@ -20719,13 +20470,13 @@
         <v>98</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE9" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG9" s="0" t="s">
         <v>98</v>
@@ -20734,61 +20485,61 @@
         <v>98</v>
       </c>
       <c r="BI9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ9" s="0" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="BL9" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM9" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN9" s="0" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="BO9" s="0" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="BP9" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BQ9" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV9" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW9" s="0" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB9" s="0" t="s">
         <v>97</v>
@@ -20797,21 +20548,21 @@
         <v>98</v>
       </c>
       <c r="CD9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE9" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>86</v>
@@ -20820,34 +20571,34 @@
         <v>2016.09</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>227</v>
@@ -20856,10 +20607,10 @@
         <v>228</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>97</v>
@@ -20883,7 +20634,7 @@
         <v>97</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA10" s="0" t="s">
         <v>98</v>
@@ -20895,10 +20646,10 @@
         <v>98</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF10" s="0" t="s">
         <v>98</v>
@@ -20913,13 +20664,13 @@
         <v>98</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="AM10" s="0" t="s">
         <v>98</v>
@@ -20949,22 +20700,22 @@
         <v>97</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="AZ10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB10" s="0" t="s">
         <v>98</v>
@@ -20982,43 +20733,43 @@
         <v>97</v>
       </c>
       <c r="BG10" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BI10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ10" s="0" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="BM10" s="0" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="BN10" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BO10" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BP10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ10" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BT10" s="0" t="s">
         <v>97</v>
@@ -21042,7 +20793,7 @@
         <v>97</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB10" s="0" t="s">
         <v>97</v>
@@ -21051,57 +20802,57 @@
         <v>98</v>
       </c>
       <c r="CD10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE10" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2016.09</v>
+        <v>2016.04</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>227</v>
@@ -21110,7 +20861,7 @@
         <v>228</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>97</v>
@@ -21149,7 +20900,7 @@
         <v>98</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="AE11" s="0" t="s">
         <v>98</v>
@@ -21167,7 +20918,7 @@
         <v>98</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK11" s="0" t="s">
         <v>97</v>
@@ -21203,22 +20954,22 @@
         <v>97</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AX11" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AZ11" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="BB11" s="0" t="s">
         <v>98</v>
@@ -21245,16 +20996,16 @@
         <v>97</v>
       </c>
       <c r="BJ11" s="0" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="BL11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM11" s="0" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="BN11" s="0" t="s">
         <v>124</v>
@@ -21263,16 +21014,16 @@
         <v>124</v>
       </c>
       <c r="BP11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ11" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR11" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="BS11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BT11" s="0" t="s">
         <v>97</v>
@@ -21305,10 +21056,10 @@
         <v>98</v>
       </c>
       <c r="CD11" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="CE11" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF11" s="0" t="s">
         <v>97</v>
@@ -21316,46 +21067,46 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>377</v>
+      <c r="D12" s="0" t="n">
+        <v>2016.03</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>98</v>
+      <c r="I12" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>5.2</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>207</v>
+      <c r="M12" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>227</v>
@@ -21391,13 +21142,13 @@
         <v>97</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC12" s="0" t="s">
         <v>98</v>
@@ -21421,10 +21172,10 @@
         <v>98</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL12" s="0" t="s">
         <v>97</v>
@@ -21463,16 +21214,16 @@
         <v>97</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="AZ12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="BB12" s="0" t="s">
         <v>98</v>
@@ -21490,7 +21241,7 @@
         <v>97</v>
       </c>
       <c r="BG12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BH12" s="0" t="s">
         <v>98</v>
@@ -21499,7 +21250,7 @@
         <v>97</v>
       </c>
       <c r="BJ12" s="0" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="BK12" s="0" t="s">
         <v>123</v>
@@ -21508,22 +21259,22 @@
         <v>98</v>
       </c>
       <c r="BM12" s="0" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="BN12" s="0" t="s">
         <v>106</v>
       </c>
       <c r="BO12" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="BP12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ12" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BS12" s="0" t="s">
         <v>98</v>
@@ -21541,7 +21292,7 @@
         <v>131</v>
       </c>
       <c r="BX12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BY12" s="0" t="s">
         <v>98</v>
@@ -21562,13 +21313,1266 @@
         <v>98</v>
       </c>
       <c r="CE12" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF12" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2016.03</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ13" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK13" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM13" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE13" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="CF12" s="0" t="s">
+      <c r="CF13" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE14" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK14" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV14" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF14" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2016.09</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA15" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE15" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ15" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="BK15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM15" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV15" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF15" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY16" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA16" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE16" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ16" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM16" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV16" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF16" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY17" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA17" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE17" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ17" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM17" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV17" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF17" s="0" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -21576,5 +22580,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -13,10 +13,12 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Final" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="SUV" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Final!$A$1:$CF$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Final!$A$1:$CF$10</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SUV!$A$1:$CF$9</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
@@ -32,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">temp!$A$1:$CF$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
@@ -40,16 +43,18 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet3!$A$1:$CM$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Final!$A$1:$CF$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6845" uniqueCount="322">
   <si>
     <t>车型</t>
   </si>
@@ -2721,7 +2726,7 @@
     </r>
   </si>
   <si>
-    <t>卡罗拉 2017款 改款双擎 1.8L CVT精英版</t>
+    <t>卡罗拉 2017款 改款双擎 1.8L CVT豪华版</t>
   </si>
   <si>
     <t>1.8L 99马力 L4</t>
@@ -2730,121 +2735,187 @@
     <t>E-CVT无级变速</t>
   </si>
   <si>
+    <t>8英寸</t>
+  </si>
+  <si>
+    <t>6-7喇叭</t>
+  </si>
+  <si>
+    <t>思域 2016款 220TURBO 自动尊贵版</t>
+  </si>
+  <si>
+    <t>1.5T 177马力 L4</t>
+  </si>
+  <si>
+    <t>CVT无级变速</t>
+  </si>
+  <si>
+    <t>无级变速箱(CVT)</t>
+  </si>
+  <si>
+    <t>前- / 后●</t>
+  </si>
+  <si>
+    <t>7英寸</t>
+  </si>
+  <si>
+    <t>思域 2016款 220TURBO 自动豪华版</t>
+  </si>
+  <si>
+    <t>朗逸 2017款 230TSI DSG豪华版</t>
+  </si>
+  <si>
+    <t>上汽大众</t>
+  </si>
+  <si>
+    <t>4605*1765*1460</t>
+  </si>
+  <si>
+    <t>卤素(选装氙气)</t>
+  </si>
+  <si>
+    <t>标致308 2016款 350THP 自动尊贵版</t>
+  </si>
+  <si>
+    <t>1.6T 167马力 L4</t>
+  </si>
+  <si>
+    <t>6挡手自一体</t>
+  </si>
+  <si>
+    <t>手自一体变速箱(AT)</t>
+  </si>
+  <si>
+    <t>皮/织物混搭</t>
+  </si>
+  <si>
+    <t>9.7英寸</t>
+  </si>
+  <si>
+    <t>轩逸 2016款 1.8XV CVT智尊版</t>
+  </si>
+  <si>
+    <t>1.8L 139马力 L4</t>
+  </si>
+  <si>
+    <t>雷凌 2017款 改款双擎 1.8H GS-L CVT领先版</t>
+  </si>
+  <si>
+    <t>1.8L 99马力 </t>
+  </si>
+  <si>
+    <t>仿皮+真皮</t>
+  </si>
+  <si>
+    <t>4-5喇叭</t>
+  </si>
+  <si>
+    <t>雷凌 2017款 改款双擎 1.8H V CVT豪华版</t>
+  </si>
+  <si>
+    <t>博越 2016款 1.8TD 自动四驱智尊型</t>
+  </si>
+  <si>
+    <t>吉利汽车</t>
+  </si>
+  <si>
+    <t>紧凑型SUV</t>
+  </si>
+  <si>
+    <t>1.8T 184马力 L4</t>
+  </si>
+  <si>
+    <t>4519*1831*1694</t>
+  </si>
+  <si>
+    <t>5门5座SUV</t>
+  </si>
+  <si>
+    <t>手自一体变速箱(AT</t>
+  </si>
+  <si>
+    <t>哈弗H6 2017款 换代 红标 2.0T 自动两驱领尚型</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
+  </si>
+  <si>
+    <t>2.0T 197马力 L4</t>
+  </si>
+  <si>
+    <t>4600*1860*1720</t>
+  </si>
+  <si>
+    <t>双离合变速箱(DCT</t>
+  </si>
+  <si>
+    <t>主● / 副○</t>
+  </si>
+  <si>
+    <t>9英寸</t>
+  </si>
+  <si>
+    <t>10-11喇叭</t>
+  </si>
+  <si>
+    <t>哈弗H6 2017款 换代 蓝标 2.0T 自动两驱领尚型</t>
+  </si>
+  <si>
+    <t>哈弗H6 Coupe 2017款 红标 2.0T 自动两驱尊贵型</t>
+  </si>
+  <si>
+    <t>4589*1835*1700</t>
+  </si>
+  <si>
+    <t>哈弗H6 Coupe 2017款 蓝标 2.0T 自动两驱尊贵型</t>
+  </si>
+  <si>
+    <t>4549*1835*1700</t>
+  </si>
+  <si>
     <t>单碟CD</t>
   </si>
   <si>
-    <t>6-7喇叭</t>
-  </si>
-  <si>
-    <t>卡罗拉 2017款 改款双擎 1.8L CVT豪华版</t>
-  </si>
-  <si>
-    <t>8英寸</t>
-  </si>
-  <si>
-    <t>威朗 2017款 三厢 15S 自动领先型</t>
-  </si>
-  <si>
-    <t>1.5L 118马力 L4</t>
-  </si>
-  <si>
-    <t>6挡手自一体</t>
-  </si>
-  <si>
-    <t>4718*1802*1466</t>
-  </si>
-  <si>
-    <t>手自一体变速箱(AT)</t>
-  </si>
-  <si>
-    <t>前- / 后●</t>
-  </si>
-  <si>
-    <t>卤素(选装LED)</t>
-  </si>
-  <si>
-    <t>威朗 2017款 三厢 20T 双离合精英型</t>
+    <t>哈弗H7 2016款 蓝标H7 2.0T 自动豪华型</t>
+  </si>
+  <si>
+    <t>中型SUV</t>
+  </si>
+  <si>
+    <t>2.0T 231马力 L4</t>
+  </si>
+  <si>
+    <t>6挡双离合</t>
+  </si>
+  <si>
+    <t>4700*1925*1718</t>
+  </si>
+  <si>
+    <t>10.1英寸</t>
+  </si>
+  <si>
+    <t>8-9喇叭(选装10</t>
+  </si>
+  <si>
+    <t>哈弗H7 2017款 红标H7 2.0T 自动尊享型</t>
+  </si>
+  <si>
+    <t>4715*1925*1718</t>
+  </si>
+  <si>
+    <t>10英寸</t>
+  </si>
+  <si>
+    <t>荣威RX5 2017款 20T 自动互联网智尊版</t>
   </si>
   <si>
     <t>1.5T 169马力 L4</t>
   </si>
   <si>
-    <t>思域 2016款 220TURBO 自动尊贵版</t>
-  </si>
-  <si>
-    <t>1.5T 177马力 L4</t>
-  </si>
-  <si>
-    <t>CVT无级变速</t>
-  </si>
-  <si>
-    <t>无级变速箱(CVT)</t>
-  </si>
-  <si>
-    <t>7英寸</t>
-  </si>
-  <si>
-    <t>思域 2016款 220TURBO 自动豪华版</t>
-  </si>
-  <si>
-    <t>朗逸 2017款 230TSI DSG舒适版</t>
-  </si>
-  <si>
-    <t>上汽大众</t>
-  </si>
-  <si>
-    <t>4605*1765*1460</t>
-  </si>
-  <si>
-    <t>朗逸 2017款 230TSI DSG豪华版</t>
-  </si>
-  <si>
-    <t>卤素(选装氙气)</t>
-  </si>
-  <si>
-    <t>标致308 2016款 350THP 自动尊贵版</t>
-  </si>
-  <si>
-    <t>1.6T 167马力 L4</t>
-  </si>
-  <si>
-    <t>皮/织物混搭</t>
-  </si>
-  <si>
-    <t>9.7英寸</t>
-  </si>
-  <si>
-    <t>标致408 2016款 1.6T 自动豪华版</t>
-  </si>
-  <si>
-    <t>轩逸 2016款 1.6XV CVT智尊版</t>
-  </si>
-  <si>
-    <t>1.6L 126马力 L4</t>
-  </si>
-  <si>
-    <t>4-5喇叭</t>
-  </si>
-  <si>
-    <t>轩逸 2016款 1.8XV CVT智尊版</t>
-  </si>
-  <si>
-    <t>1.8L 139马力 L4</t>
-  </si>
-  <si>
-    <t>速腾 2017款 230TSI 自动舒适型</t>
-  </si>
-  <si>
-    <t>雷凌 2017款 改款双擎 1.8H GS-L CVT领先版</t>
-  </si>
-  <si>
-    <t>1.8L 99马力 </t>
-  </si>
-  <si>
-    <t>仿皮+真皮</t>
-  </si>
-  <si>
-    <t>雷凌 2017款 改款双擎 1.8H V CVT豪华版</t>
+    <t>4545*1855*1719</t>
+  </si>
+  <si>
+    <t>10.4英寸</t>
   </si>
 </sst>
 </file>
@@ -3075,6 +3146,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -18208,10 +18283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CF17"/>
+  <dimension ref="A1:CF19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18223,8 +18298,7 @@
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="14.7835051546392"/>
     <col collapsed="false" hidden="true" max="8" min="8" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2216494845361"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7680412371134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3556701030928"/>
+    <col collapsed="false" hidden="true" max="11" min="10" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4123711340206"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3917525773196"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.4639175257732"/>
@@ -18239,36 +18313,32 @@
     <col collapsed="false" hidden="true" max="29" min="29" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.5360824742268"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.2577319587629"/>
-    <col collapsed="false" hidden="true" max="33" min="32" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.9381443298969"/>
-    <col collapsed="false" hidden="true" max="35" min="35" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="35" min="32" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.4845360824742"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.3917525773196"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.4639175257732"/>
-    <col collapsed="false" hidden="true" max="47" min="39" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="true" max="49" min="38" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="13.3762886597938"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="11.8298969072165"/>
     <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.0927835051546"/>
     <col collapsed="false" hidden="true" max="55" min="54" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="56" min="56" style="0" width="12.8092783505155"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="13.7938144329897"/>
+    <col collapsed="false" hidden="true" max="57" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="58" min="58" style="0" width="10.0103092783505"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="5.52061855670103"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.5670103092784"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="7.33505154639175"/>
+    <col collapsed="false" hidden="true" max="61" min="61" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="0" width="10.9948453608247"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="0" width="13.9381443298969"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="12.5360824742268"/>
+    <col collapsed="false" hidden="true" max="64" min="64" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="0" width="8.31958762886598"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="0" width="9.72680412371134"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="10.1494845360825"/>
     <col collapsed="false" hidden="false" max="68" min="68" style="0" width="5.09278350515464"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="true" max="69" min="69" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="70" min="70" style="0" width="10.7113402061856"/>
     <col collapsed="false" hidden="false" max="71" min="71" style="0" width="12.8092783505155"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="9.58247422680412"/>
+    <col collapsed="false" hidden="true" max="72" min="72" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="73" min="73" style="0" width="16.319587628866"/>
     <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="10.4278350515464"/>
@@ -18278,7 +18348,7 @@
     <col collapsed="false" hidden="false" max="79" min="79" style="0" width="20.8144329896907"/>
     <col collapsed="false" hidden="true" max="81" min="80" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="82" min="82" style="0" width="12.6752577319588"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="13.7938144329897"/>
+    <col collapsed="false" hidden="true" max="83" min="83" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.5670103092784"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="11.639175257732"/>
   </cols>
@@ -18574,6 +18644,12 @@
       <c r="L2" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>130</v>
+      </c>
       <c r="O2" s="0" t="s">
         <v>227</v>
       </c>
@@ -18620,10 +18696,10 @@
         <v>98</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="0" t="s">
         <v>98</v>
@@ -18677,7 +18753,7 @@
         <v>97</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX2" s="0" t="s">
         <v>97</v>
@@ -18713,16 +18789,16 @@
         <v>98</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="BK2" s="0" t="s">
         <v>123</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="BM2" s="0" t="s">
         <v>262</v>
@@ -18734,7 +18810,7 @@
         <v>106</v>
       </c>
       <c r="BP2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ2" s="0" t="s">
         <v>98</v>
@@ -18767,7 +18843,7 @@
         <v>97</v>
       </c>
       <c r="CA2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB2" s="0" t="s">
         <v>97</v>
@@ -18790,37 +18866,43 @@
         <v>263</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2017.04</v>
+        <v>2016.04</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>227</v>
@@ -18832,7 +18914,7 @@
         <v>230</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>97</v>
@@ -18868,7 +18950,7 @@
         <v>98</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>97</v>
@@ -18886,7 +18968,7 @@
         <v>98</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK3" s="0" t="s">
         <v>97</v>
@@ -18937,7 +19019,7 @@
         <v>97</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB3" s="0" t="s">
         <v>98</v>
@@ -18946,7 +19028,7 @@
         <v>98</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE3" s="0" t="s">
         <v>230</v>
@@ -18955,19 +19037,19 @@
         <v>97</v>
       </c>
       <c r="BG3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI3" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ3" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="BL3" s="0" t="s">
         <v>98</v>
@@ -18997,13 +19079,13 @@
         <v>97</v>
       </c>
       <c r="BU3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BV3" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW3" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="BX3" s="0" t="s">
         <v>97</v>
@@ -19015,7 +19097,7 @@
         <v>97</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CB3" s="0" t="s">
         <v>97</v>
@@ -19035,43 +19117,43 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2016.09</v>
+        <v>2016.04</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>93</v>
@@ -19122,10 +19204,10 @@
         <v>98</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF4" s="0" t="s">
         <v>98</v>
@@ -19176,22 +19258,22 @@
         <v>97</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX4" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AZ4" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="BB4" s="0" t="s">
         <v>98</v>
@@ -19203,25 +19285,25 @@
         <v>102</v>
       </c>
       <c r="BE4" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BG4" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BI4" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ4" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="BL4" s="0" t="s">
         <v>98</v>
@@ -19230,7 +19312,7 @@
         <v>262</v>
       </c>
       <c r="BN4" s="0" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="BO4" s="0" t="s">
         <v>124</v>
@@ -19242,28 +19324,28 @@
         <v>98</v>
       </c>
       <c r="BR4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BS4" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BT4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BV4" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW4" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="BX4" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ4" s="0" t="s">
         <v>97</v>
@@ -19281,45 +19363,45 @@
         <v>98</v>
       </c>
       <c r="CE4" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2016.09</v>
+        <v>2017.02</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>6.1</v>
+        <v>200</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>91</v>
@@ -19328,7 +19410,7 @@
         <v>226</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>227</v>
@@ -19376,10 +19458,10 @@
         <v>98</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF5" s="0" t="s">
         <v>98</v>
@@ -19430,13 +19512,13 @@
         <v>97</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY5" s="0" t="s">
         <v>100</v>
@@ -19445,7 +19527,7 @@
         <v>97</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BB5" s="0" t="s">
         <v>98</v>
@@ -19472,10 +19554,10 @@
         <v>97</v>
       </c>
       <c r="BJ5" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="BL5" s="0" t="s">
         <v>98</v>
@@ -19484,13 +19566,13 @@
         <v>262</v>
       </c>
       <c r="BN5" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BO5" s="0" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="BP5" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BQ5" s="0" t="s">
         <v>98</v>
@@ -19499,10 +19581,10 @@
         <v>97</v>
       </c>
       <c r="BS5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU5" s="0" t="s">
         <v>97</v>
@@ -19511,19 +19593,19 @@
         <v>230</v>
       </c>
       <c r="BW5" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX5" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BZ5" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB5" s="0" t="s">
         <v>97</v>
@@ -19532,13 +19614,13 @@
         <v>98</v>
       </c>
       <c r="CD5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE5" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19546,13 +19628,13 @@
         <v>274</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.09</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>275</v>
@@ -19561,19 +19643,19 @@
         <v>276</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>91</v>
@@ -19618,7 +19700,7 @@
         <v>97</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="0" t="s">
         <v>98</v>
@@ -19630,7 +19712,7 @@
         <v>98</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>97</v>
@@ -19693,7 +19775,7 @@
         <v>97</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="AZ6" s="0" t="s">
         <v>97</v>
@@ -19717,19 +19799,19 @@
         <v>97</v>
       </c>
       <c r="BG6" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BI6" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ6" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="BL6" s="0" t="s">
         <v>98</v>
@@ -19765,19 +19847,19 @@
         <v>230</v>
       </c>
       <c r="BW6" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="BX6" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BZ6" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB6" s="0" t="s">
         <v>97</v>
@@ -19786,57 +19868,57 @@
         <v>98</v>
       </c>
       <c r="CD6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE6" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2016.04</v>
+        <v>2016.03</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>227</v>
@@ -19872,19 +19954,19 @@
         <v>97</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>97</v>
@@ -19902,10 +19984,10 @@
         <v>98</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL7" s="0" t="s">
         <v>97</v>
@@ -19944,10 +20026,10 @@
         <v>97</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="AZ7" s="0" t="s">
         <v>97</v>
@@ -19962,7 +20044,7 @@
         <v>98</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BE7" s="0" t="s">
         <v>230</v>
@@ -19974,16 +20056,16 @@
         <v>98</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="BI7" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ7" s="0" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="BL7" s="0" t="s">
         <v>98</v>
@@ -19992,7 +20074,7 @@
         <v>262</v>
       </c>
       <c r="BN7" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BO7" s="0" t="s">
         <v>124</v>
@@ -20004,7 +20086,7 @@
         <v>98</v>
       </c>
       <c r="BR7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS7" s="0" t="s">
         <v>98</v>
@@ -20019,13 +20101,13 @@
         <v>230</v>
       </c>
       <c r="BW7" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="BX7" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BZ7" s="0" t="s">
         <v>97</v>
@@ -20046,21 +20128,21 @@
         <v>108</v>
       </c>
       <c r="CF7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2017.02</v>
+        <v>2016.09</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>223</v>
@@ -20069,7 +20151,7 @@
         <v>224</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>225</v>
@@ -20077,8 +20159,8 @@
       <c r="I8" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>98</v>
+      <c r="J8" s="0" t="n">
+        <v>6.2</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1.4</v>
@@ -20099,7 +20181,7 @@
         <v>228</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>97</v>
@@ -20141,7 +20223,7 @@
         <v>230</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AF8" s="0" t="s">
         <v>98</v>
@@ -20156,7 +20238,7 @@
         <v>98</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" s="0" t="s">
         <v>97</v>
@@ -20195,7 +20277,7 @@
         <v>97</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX8" s="0" t="s">
         <v>97</v>
@@ -20207,7 +20289,7 @@
         <v>97</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="BB8" s="0" t="s">
         <v>98</v>
@@ -20225,40 +20307,40 @@
         <v>97</v>
       </c>
       <c r="BG8" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BH8" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BI8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BJ8" s="0" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="BK8" s="0" t="s">
         <v>198</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="BM8" s="0" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="BN8" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BO8" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BP8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ8" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS8" s="0" t="s">
         <v>97</v>
@@ -20267,7 +20349,7 @@
         <v>97</v>
       </c>
       <c r="BU8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV8" s="0" t="s">
         <v>230</v>
@@ -20279,7 +20361,7 @@
         <v>97</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BZ8" s="0" t="s">
         <v>97</v>
@@ -20294,54 +20376,51 @@
         <v>98</v>
       </c>
       <c r="CD8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE8" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>2017.02</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>200</v>
+      <c r="I9" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>130</v>
@@ -20356,7 +20435,7 @@
         <v>230</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>97</v>
@@ -20392,10 +20471,10 @@
         <v>98</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF9" s="0" t="s">
         <v>98</v>
@@ -20410,7 +20489,7 @@
         <v>98</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" s="0" t="s">
         <v>97</v>
@@ -20455,7 +20534,7 @@
         <v>97</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="AZ9" s="0" t="s">
         <v>97</v>
@@ -20470,7 +20549,7 @@
         <v>98</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BE9" s="0" t="s">
         <v>230</v>
@@ -20479,7 +20558,7 @@
         <v>97</v>
       </c>
       <c r="BG9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH9" s="0" t="s">
         <v>98</v>
@@ -20488,25 +20567,25 @@
         <v>97</v>
       </c>
       <c r="BJ9" s="0" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="BL9" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM9" s="0" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="BN9" s="0" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="BO9" s="0" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="BP9" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="BQ9" s="0" t="s">
         <v>98</v>
@@ -20515,31 +20594,31 @@
         <v>97</v>
       </c>
       <c r="BS9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BT9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BU9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BV9" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW9" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BZ9" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CB9" s="0" t="s">
         <v>97</v>
@@ -20548,7 +20627,7 @@
         <v>98</v>
       </c>
       <c r="CD9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CE9" s="0" t="s">
         <v>108</v>
@@ -20559,46 +20638,43 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>2016.09</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>6.1</v>
+      <c r="I10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>227</v>
@@ -20634,7 +20710,7 @@
         <v>97</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA10" s="0" t="s">
         <v>98</v>
@@ -20646,7 +20722,7 @@
         <v>98</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="AE10" s="0" t="s">
         <v>97</v>
@@ -20664,7 +20740,7 @@
         <v>98</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" s="0" t="s">
         <v>97</v>
@@ -20709,7 +20785,7 @@
         <v>97</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AZ10" s="0" t="s">
         <v>97</v>
@@ -20724,7 +20800,7 @@
         <v>98</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BE10" s="0" t="s">
         <v>230</v>
@@ -20733,19 +20809,19 @@
         <v>97</v>
       </c>
       <c r="BG10" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="BI10" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ10" s="0" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BL10" s="0" t="s">
         <v>98</v>
@@ -20760,7 +20836,7 @@
         <v>106</v>
       </c>
       <c r="BP10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BQ10" s="0" t="s">
         <v>98</v>
@@ -20781,10 +20857,10 @@
         <v>230</v>
       </c>
       <c r="BW10" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BX10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BY10" s="0" t="s">
         <v>98</v>
@@ -20793,7 +20869,7 @@
         <v>97</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CB10" s="0" t="s">
         <v>97</v>
@@ -20802,311 +20878,57 @@
         <v>98</v>
       </c>
       <c r="CD10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CE10" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF10" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2016.04</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY11" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD11" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE11" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ11" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="BK11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM11" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="BN11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV11" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="BW11" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2016.03</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>276</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>5.2</v>
+        <v>8.2</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>227</v>
@@ -21142,7 +20964,7 @@
         <v>97</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA12" s="0" t="s">
         <v>97</v>
@@ -21154,34 +20976,34 @@
         <v>98</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="AE12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI12" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN12" s="0" t="s">
         <v>97</v>
@@ -21196,7 +21018,7 @@
         <v>98</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS12" s="0" t="s">
         <v>97</v>
@@ -21214,7 +21036,7 @@
         <v>97</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY12" s="0" t="s">
         <v>100</v>
@@ -21223,7 +21045,7 @@
         <v>97</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="BB12" s="0" t="s">
         <v>98</v>
@@ -21232,7 +21054,7 @@
         <v>98</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE12" s="0" t="s">
         <v>230</v>
@@ -21241,16 +21063,16 @@
         <v>97</v>
       </c>
       <c r="BG12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ12" s="0" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="BK12" s="0" t="s">
         <v>123</v>
@@ -21259,25 +21081,25 @@
         <v>98</v>
       </c>
       <c r="BM12" s="0" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="BN12" s="0" t="s">
         <v>106</v>
       </c>
       <c r="BO12" s="0" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BP12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BQ12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BR12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT12" s="0" t="s">
         <v>97</v>
@@ -21289,7 +21111,7 @@
         <v>230</v>
       </c>
       <c r="BW12" s="0" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="BX12" s="0" t="s">
         <v>97</v>
@@ -21301,66 +21123,66 @@
         <v>97</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE12" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2016.03</v>
+        <v>2017.04</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>6.7</v>
+        <v>292</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>227</v>
@@ -21399,16 +21221,16 @@
         <v>97</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC13" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="AE13" s="0" t="s">
         <v>97</v>
@@ -21426,16 +21248,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN13" s="0" t="s">
         <v>97</v>
@@ -21450,7 +21272,7 @@
         <v>98</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS13" s="0" t="s">
         <v>97</v>
@@ -21471,22 +21293,22 @@
         <v>97</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="BB13" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BC13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE13" s="0" t="s">
         <v>230</v>
@@ -21495,16 +21317,16 @@
         <v>97</v>
       </c>
       <c r="BG13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ13" s="0" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="BK13" s="0" t="s">
         <v>123</v>
@@ -21513,13 +21335,13 @@
         <v>98</v>
       </c>
       <c r="BM13" s="0" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="BN13" s="0" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="BO13" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BP13" s="0" t="s">
         <v>97</v>
@@ -21531,19 +21353,19 @@
         <v>97</v>
       </c>
       <c r="BS13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BU13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV13" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW13" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX13" s="0" t="s">
         <v>97</v>
@@ -21555,16 +21377,16 @@
         <v>97</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB13" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE13" s="0" t="s">
         <v>108</v>
@@ -21575,46 +21397,46 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2016.09</v>
+        <v>2017.04</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>224</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>6.2</v>
+        <v>292</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>227</v>
@@ -21623,7 +21445,7 @@
         <v>228</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>97</v>
@@ -21650,10 +21472,10 @@
         <v>97</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AB14" s="0" t="s">
         <v>98</v>
@@ -21662,10 +21484,10 @@
         <v>98</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF14" s="0" t="s">
         <v>98</v>
@@ -21680,7 +21502,7 @@
         <v>98</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK14" s="0" t="s">
         <v>97</v>
@@ -21689,7 +21511,7 @@
         <v>97</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN14" s="0" t="s">
         <v>97</v>
@@ -21704,7 +21526,7 @@
         <v>98</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS14" s="0" t="s">
         <v>97</v>
@@ -21725,19 +21547,19 @@
         <v>97</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="BB14" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BC14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BD14" s="0" t="s">
         <v>102</v>
@@ -21749,40 +21571,40 @@
         <v>97</v>
       </c>
       <c r="BG14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ14" s="0" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="BL14" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM14" s="0" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="BN14" s="0" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="BO14" s="0" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="BP14" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BQ14" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BR14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS14" s="0" t="s">
         <v>97</v>
@@ -21809,19 +21631,19 @@
         <v>97</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB14" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE14" s="0" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="CF14" s="0" t="s">
         <v>97</v>
@@ -21829,46 +21651,46 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2016.09</v>
+        <v>2017.03</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>227</v>
@@ -21877,7 +21699,7 @@
         <v>228</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>97</v>
@@ -21904,7 +21726,7 @@
         <v>97</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA15" s="0" t="s">
         <v>98</v>
@@ -21919,7 +21741,7 @@
         <v>230</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="AF15" s="0" t="s">
         <v>98</v>
@@ -21934,7 +21756,7 @@
         <v>98</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK15" s="0" t="s">
         <v>97</v>
@@ -21943,7 +21765,7 @@
         <v>97</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN15" s="0" t="s">
         <v>97</v>
@@ -21958,7 +21780,7 @@
         <v>98</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS15" s="0" t="s">
         <v>97</v>
@@ -21979,13 +21801,13 @@
         <v>97</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AZ15" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="BB15" s="0" t="s">
         <v>98</v>
@@ -22003,7 +21825,7 @@
         <v>97</v>
       </c>
       <c r="BG15" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="BH15" s="0" t="s">
         <v>98</v>
@@ -22012,22 +21834,22 @@
         <v>97</v>
       </c>
       <c r="BJ15" s="0" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="BL15" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BM15" s="0" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="BN15" s="0" t="s">
         <v>161</v>
       </c>
       <c r="BO15" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="BP15" s="0" t="s">
         <v>97</v>
@@ -22063,13 +21885,13 @@
         <v>97</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB15" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD15" s="0" t="s">
         <v>97</v>
@@ -22083,37 +21905,46 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2017.03</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>98</v>
+        <v>292</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>8.3</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>227</v>
@@ -22125,7 +21956,7 @@
         <v>230</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>97</v>
@@ -22149,7 +21980,7 @@
         <v>97</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA16" s="0" t="s">
         <v>98</v>
@@ -22161,7 +21992,7 @@
         <v>98</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="AE16" s="0" t="s">
         <v>97</v>
@@ -22179,7 +22010,7 @@
         <v>98</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK16" s="0" t="s">
         <v>97</v>
@@ -22188,7 +22019,7 @@
         <v>97</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN16" s="0" t="s">
         <v>97</v>
@@ -22203,7 +22034,7 @@
         <v>98</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS16" s="0" t="s">
         <v>97</v>
@@ -22224,13 +22055,13 @@
         <v>97</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="AZ16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="BB16" s="0" t="s">
         <v>98</v>
@@ -22239,7 +22070,7 @@
         <v>98</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE16" s="0" t="s">
         <v>230</v>
@@ -22257,25 +22088,25 @@
         <v>97</v>
       </c>
       <c r="BJ16" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="BM16" s="0" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="BN16" s="0" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="BO16" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="BP16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ16" s="0" t="s">
         <v>98</v>
@@ -22284,22 +22115,22 @@
         <v>97</v>
       </c>
       <c r="BS16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BU16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV16" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW16" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BY16" s="0" t="s">
         <v>98</v>
@@ -22308,57 +22139,66 @@
         <v>97</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB16" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>86</v>
+        <v>309</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2016.04</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>98</v>
+        <v>292</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>8.5</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>227</v>
@@ -22394,7 +22234,7 @@
         <v>97</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>98</v>
@@ -22406,25 +22246,25 @@
         <v>98</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="AE17" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AH17" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK17" s="0" t="s">
         <v>97</v>
@@ -22433,7 +22273,7 @@
         <v>97</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN17" s="0" t="s">
         <v>97</v>
@@ -22442,13 +22282,13 @@
         <v>98</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ17" s="0" t="s">
         <v>98</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS17" s="0" t="s">
         <v>97</v>
@@ -22469,13 +22309,13 @@
         <v>97</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="AZ17" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="BB17" s="0" t="s">
         <v>98</v>
@@ -22484,7 +22324,7 @@
         <v>98</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BE17" s="0" t="s">
         <v>230</v>
@@ -22496,31 +22336,31 @@
         <v>97</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BI17" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BJ17" s="0" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="BM17" s="0" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="BN17" s="0" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="BO17" s="0" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="BP17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BQ17" s="0" t="s">
         <v>98</v>
@@ -22529,22 +22369,22 @@
         <v>97</v>
       </c>
       <c r="BS17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT17" s="0" t="s">
         <v>97</v>
       </c>
       <c r="BU17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BV17" s="0" t="s">
         <v>230</v>
       </c>
       <c r="BW17" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BX17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BY17" s="0" t="s">
         <v>98</v>
@@ -22553,26 +22393,2901 @@
         <v>97</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CB17" s="0" t="s">
         <v>97</v>
       </c>
       <c r="CC17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CD17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CE17" s="0" t="s">
         <v>108</v>
       </c>
       <c r="CF17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2016.11</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE18" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ18" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK18" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL18" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM18" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV18" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF18" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2017.07</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA19" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ19" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK19" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM19" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF19" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CF17"/>
+  <autoFilter ref="A1:CF10"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CF11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7525773195876"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3556701030928"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2938144329897"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5567010309278"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1855670103093"/>
+    <col collapsed="false" hidden="true" max="8" min="7" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="true" max="12" min="12" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.8865979381443"/>
+    <col collapsed="false" hidden="true" max="25" min="14" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.9948453608247"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="31" min="29" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.1649484536082"/>
+    <col collapsed="false" hidden="true" max="41" min="37" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="true" max="50" min="43" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.4484536082474"/>
+    <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="20.8144329896907"/>
+    <col collapsed="false" hidden="true" max="54" min="54" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="59" min="56" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="61" min="61" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="20.8144329896907"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="16.7474226804124"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="13.9381443298969"/>
+    <col collapsed="false" hidden="false" max="67" min="66" style="0" width="13.6546391752577"/>
+    <col collapsed="false" hidden="true" max="68" min="68" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="70" min="70" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="true" max="72" min="72" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="13.520618556701"/>
+    <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="15.340206185567"/>
+    <col collapsed="false" hidden="true" max="81" min="76" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="11.6907216494845"/>
+    <col collapsed="false" hidden="true" max="84" min="83" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="11.639175257732"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2016.03</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF2" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2017.04</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN3" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO3" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF3" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2017.04</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF4" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2017.03</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ5" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM5" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF5" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2017.03</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM6" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW6" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF6" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2016.04</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA7" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE7" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ7" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="BK7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL7" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM7" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN7" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO7" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV7" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF7" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2016.11</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ8" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL8" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV8" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF8" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2017.07</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA9" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ9" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM9" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="BW9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF9" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:CF9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
